--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,17 +636,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5/8/2024</t>
+          <t>5/24/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SANCHEZ, MIGUEL B. AV. 1050</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>788825789</t>
+          <t>788826017</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dos postes rajados y una columna fuera de plomo. Ver fotos o pedirme ubicacion, esta en la puerta de un colegio</t>
+          <t>Terminal con rienda</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -691,30 +691,30 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.455394</v>
+        <v>-58.467279</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.542575</v>
+        <v>-34.551117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>2676</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5/24/2024</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>UGARTE, MANUEL 2832</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>788826017</t>
+          <t>791898304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Terminal con rienda</t>
+          <t>Transferir red y retirar columna</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -763,16 +763,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.467279</v>
+        <v>-58.465814</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.551117</v>
+        <v>-34.558361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2676</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 2832</t>
+          <t>ECHEVERRIA 2850</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>791898304</t>
+          <t>791898330</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Transferir red y retirar columna</t>
+          <t>Ver foto para ubicar no tiene nodo</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -822,45 +822,41 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.465814</v>
+        <v>-58.460089</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.558361</v>
+        <v>-34.565514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 2850</t>
+          <t>DIAZ COLODRERO 3309</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>791898330</t>
+          <t>796186684</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -875,7 +871,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ver foto para ubicar no tiene nodo</t>
+          <t>Colocar columna para solicitar traspasos</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -890,41 +886,45 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M7" t="n">
-        <v>-58.460089</v>
+        <v>-58.491722</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.565514</v>
+        <v>-34.565845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 3309</t>
+          <t>PICO 1511</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>796186684</t>
+          <t>798390296</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Colocar columna para solicitar traspasos</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -949,40 +949,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.491722</v>
+        <v>-58.465596</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.565845</v>
+        <v>-34.53627</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>5589</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PICO 1511</t>
+          <t>ARCOS 1520</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>798390296</t>
+          <t>799540526</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1007,40 +1007,28 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.465596</v>
+        <v>-58.449125</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.53627</v>
+        <v>-34.565958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>4964</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1050,7 +1038,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ARCOS 1520</t>
+          <t>OLAZABAL 2590</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1060,7 +1048,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>799540526</t>
+          <t>799540552</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,30 +1071,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>-58.449125</v>
+        <v>-58.459962</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.565958</v>
+        <v>-34.561192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4964</t>
+          <t>4595</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OLAZABAL 2590</t>
+          <t>PAROISSIEN 1806</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>799540552</t>
+          <t>802747617</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1151,40 +1151,40 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.459962</v>
+        <v>-58.464172</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.561192</v>
+        <v>-34.543845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>1/21/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PAROISSIEN 1806</t>
+          <t>ALTOLAGUIRRE 2397</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802747617</t>
+          <t>802823938</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1219,30 +1219,30 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.464172</v>
+        <v>-58.490766</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.543845</v>
+        <v>-34.576987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/21/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ALTOLAGUIRRE 2397</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802823938</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1291,36 +1291,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.490766</v>
+        <v>-58.471774</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.576987</v>
+        <v>-34.565411</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1355,20 +1355,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.471774</v>
+        <v>-58.44463</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.565411</v>
+        <v>-34.553354</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1378,17 +1378,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>Rousseau 2087</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1403,60 +1403,60 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t xml:space="preserve"> poste de Telefonia por caer</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
       <c r="M15" t="n">
-        <v>-58.44463</v>
+        <v>-58.47678</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.553354</v>
+        <v>-34.601336</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rousseau 2087</t>
+          <t>DIAZ COLODRERO 2321</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>804309658</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> poste de Telefonia por caer</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1491,20 +1491,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.47678</v>
+        <v>-58.485065</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.601336</v>
+        <v>-34.574269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 2321</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804309658</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1563,26 +1563,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.485065</v>
+        <v>-58.47538</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.574269</v>
+        <v>-34.566015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1627,30 +1627,30 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.47538</v>
+        <v>-58.473659</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.566015</v>
+        <v>-34.566979</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>5458</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>LARRALDE, CRISOLOGO AV. 3511</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804497873</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1695,20 +1695,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.473659</v>
+        <v>-58.478025</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.566979</v>
+        <v>-34.554352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5458</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LARRALDE, CRISOLOGO AV. 3511</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804497873</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1767,16 +1767,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.478025</v>
+        <v>-58.464194</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.554352</v>
+        <v>-34.558092</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1831,20 +1831,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.464194</v>
+        <v>-58.46161</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.558092</v>
+        <v>-34.567849</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1854,17 +1854,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1903,16 +1903,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.46161</v>
+        <v>-58.507746</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.567849</v>
+        <v>-34.574217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>QUESADA 3212</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804497908</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.507746</v>
+        <v>-58.471087</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.574217</v>
+        <v>-34.558545</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>QUESADA 3212</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804497908</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2039,36 +2039,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.471087</v>
+        <v>-58.50751</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.558545</v>
+        <v>-34.574543</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2103,40 +2103,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.50751</v>
+        <v>-58.457701</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.574543</v>
+        <v>-34.552844</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2175,16 +2175,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.457701</v>
+        <v>-58.485407</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.552844</v>
+        <v>-34.552985</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>MILLER 3988</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804732247</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2229,12 +2229,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2243,16 +2243,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.485407</v>
+        <v>-58.492309</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.552985</v>
+        <v>-34.557192</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5600</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MILLER 3988</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804732247</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,16 +2311,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.492309</v>
+        <v>-58.471885</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.557192</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2330,17 +2330,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2379,36 +2379,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.471885</v>
+        <v>-58.45573</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.571063</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/16/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>PACHECO 3169</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804787361</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,26 +2447,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.45573</v>
+        <v>-58.489189</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.556576</v>
+        <v>-34.56677</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5596</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/16/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PACHECO 3169</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804787361</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2511,30 +2511,30 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.489189</v>
+        <v>-58.478732</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.56677</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2559,12 +2559,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2579,40 +2579,40 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.478732</v>
+        <v>-58.482268</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.564529</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2627,17 +2627,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2647,40 +2647,40 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.482268</v>
+        <v>-58.464354</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.578975</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2719,26 +2719,26 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.464354</v>
+        <v>-58.489627</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.572486</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2783,30 +2783,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.489627</v>
+        <v>-58.471481</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.583761</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2851,20 +2851,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.471481</v>
+        <v>-58.506061</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.570441</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2919,20 +2919,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.506061</v>
+        <v>-58.499967</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.588887</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,16 +2991,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.499967</v>
+        <v>-58.499355</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.57974</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5850</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>BLANCO ENCALADA 5402</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805579030</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3033,11 +3033,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>1</t>
@@ -3059,26 +3055,26 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.499355</v>
+        <v>-58.490312</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.579354</v>
+        <v>-34.577914</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5850</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA 5402</t>
+          <t>IBERA 4960</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3088,7 +3084,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805579030</t>
+          <t>805676619</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3101,7 +3097,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>1</t>
@@ -3123,26 +3123,26 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.490312</v>
+        <v>-58.489018</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.577914</v>
+        <v>-34.566163</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3191,26 +3191,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.489018</v>
+        <v>-58.485193</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.566163</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3255,30 +3255,30 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.485193</v>
+        <v>-58.49243</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.579621</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3323,20 +3323,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.49243</v>
+        <v>-58.513552</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.551559</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3395,36 +3395,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>Paz Soldan 4991</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3459,40 +3459,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.513685</v>
+        <v>-58.468466</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.579838</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Paz Soldan 4991</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3531,16 +3531,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.468466</v>
+        <v>-58.480224</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.594154</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3595,30 +3595,30 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>-447</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>Avenida Balbin 3883</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3667,36 +3667,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.476106</v>
+        <v>-58.484982</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.568373</v>
+        <v>-34.554653</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-447</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Avenida Balbin 3883</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3731,81 +3731,13 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.484982</v>
+        <v>-58.468425</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.554653</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>807044192</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>5/29/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>O'Higgins 4379</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>807044192</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>-58.468425</v>
-      </c>
-      <c r="N50" t="n">
         <v>-34.54124</v>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/8/2024</t>
+          <t>5/24/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ARRIBEÑOS 3688</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>784675684</t>
+          <t>788826017</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,10 +541,14 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Terminal con rienda</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -557,28 +561,32 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M2" t="n">
-        <v>-58.461039</v>
+        <v>-58.467279</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.544408</v>
+        <v>-34.551117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/23/2024</t>
+          <t>8/2/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VIDAL 1959</t>
+          <t>ECHEVERRIA 2850</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -588,7 +596,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>795695862</t>
+          <t>791898330</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -603,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Transferir y retirar columna</t>
+          <t>Ver foto para ubicar no tiene nodo</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -618,45 +626,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>-58.459173</v>
+        <v>-58.460089</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.565499</v>
+        <v>-34.565514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5/24/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>DIAZ COLODRERO 3309</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>788826017</t>
+          <t>796186684</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -671,7 +675,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Terminal con rienda</t>
+          <t>Colocar columna para solicitar traspasos</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -686,7 +690,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -695,26 +699,26 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.467279</v>
+        <v>-58.491722</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.551117</v>
+        <v>-34.565845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2676</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 2832</t>
+          <t>PICO 1511</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -724,7 +728,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>791898304</t>
+          <t>798390296</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -739,7 +743,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Transferir red y retirar columna</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -749,40 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.465814</v>
+        <v>-58.465596</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.558361</v>
+        <v>-34.53627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>4964</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 2850</t>
+          <t>OLAZABAL 2590</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -792,7 +796,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>791898330</t>
+          <t>799540552</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -807,12 +811,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ver foto para ubicar no tiene nodo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -825,38 +829,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M6" t="n">
-        <v>-58.460089</v>
+        <v>-58.459962</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.565514</v>
+        <v>-34.561192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>4595</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 3309</t>
+          <t>PAROISSIEN 1806</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>796186684</t>
+          <t>802747617</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -871,7 +879,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Colocar columna para solicitar traspasos</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -881,50 +889,50 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.491722</v>
+        <v>-58.464172</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.565845</v>
+        <v>-34.543845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>1/21/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PICO 1511</t>
+          <t>ALTOLAGUIRRE 2397</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798390296</t>
+          <t>802823938</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -939,7 +947,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -959,40 +967,40 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.465596</v>
+        <v>-58.490766</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.53627</v>
+        <v>-34.576987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ARCOS 1520</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>799540526</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1007,7 +1015,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1015,30 +1023,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M9" t="n">
-        <v>-58.449125</v>
+        <v>-58.471774</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.565958</v>
+        <v>-34.565411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4964</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OLAZABAL 2590</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1048,7 +1068,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>799540552</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1063,7 +1083,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1083,40 +1103,40 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.459962</v>
+        <v>-58.44463</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.561192</v>
+        <v>-34.553354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PAROISSIEN 1806</t>
+          <t>Rousseau 2087</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802747617</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1131,17 +1151,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve"> poste de Telefonia por caer</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1151,30 +1171,30 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.464172</v>
+        <v>-58.47678</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.543845</v>
+        <v>-34.601336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/21/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ALTOLAGUIRRE 2397</t>
+          <t>DIAZ COLODRERO 2321</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1184,7 +1204,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802823938</t>
+          <t>804309658</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1199,7 +1219,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1209,7 +1229,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1223,26 +1243,26 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.490766</v>
+        <v>-58.485065</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.576987</v>
+        <v>-34.574269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1252,7 +1272,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1267,17 +1287,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1291,36 +1311,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.471774</v>
+        <v>-58.47538</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.565411</v>
+        <v>-34.566015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1335,17 +1355,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1355,40 +1375,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.44463</v>
+        <v>-58.473659</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.553354</v>
+        <v>-34.566979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>5458</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rousseau 2087</t>
+          <t>LARRALDE, CRISOLOGO AV. 3511</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>804497873</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1403,17 +1423,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> poste de Telefonia por caer</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1423,40 +1443,40 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.47678</v>
+        <v>-58.478025</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.601336</v>
+        <v>-34.554352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 2321</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804309658</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1471,7 +1491,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1495,36 +1515,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.485065</v>
+        <v>-58.464194</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.574269</v>
+        <v>-34.558092</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1549,7 +1569,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1559,30 +1579,30 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.47538</v>
+        <v>-58.46161</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.566015</v>
+        <v>-34.567849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1592,7 +1612,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1607,7 +1627,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1617,7 +1637,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1631,16 +1651,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.473659</v>
+        <v>-58.507746</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.566979</v>
+        <v>-34.574217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5458</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1650,7 +1670,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LARRALDE, CRISOLOGO AV. 3511</t>
+          <t>QUESADA 3212</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1660,7 +1680,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804497873</t>
+          <t>804497908</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1675,7 +1695,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1685,7 +1705,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1695,20 +1715,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.478025</v>
+        <v>-58.471087</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.554352</v>
+        <v>-34.558545</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1718,17 +1738,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1743,7 +1763,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1753,7 +1773,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1763,30 +1783,30 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.464194</v>
+        <v>-58.50751</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.558092</v>
+        <v>-34.574543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1796,7 +1816,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1831,30 +1851,30 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.46161</v>
+        <v>-58.457701</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.567849</v>
+        <v>-34.552844</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1864,7 +1884,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1879,7 +1899,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1894,35 +1914,35 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.507746</v>
+        <v>-58.485407</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.574217</v>
+        <v>-34.552985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>QUESADA 3212</t>
+          <t>MILLER 3988</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1932,7 +1952,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804497908</t>
+          <t>804732247</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1967,30 +1987,30 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.471087</v>
+        <v>-58.492309</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.558545</v>
+        <v>-34.557192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2000,7 +2020,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2015,7 +2035,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2025,7 +2045,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2035,30 +2055,30 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.50751</v>
+        <v>-58.471885</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.574543</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2068,7 +2088,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,26 +2127,26 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.457701</v>
+        <v>-58.45573</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.552844</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/16/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>PACHECO 3169</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2136,7 +2156,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804787361</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2151,7 +2171,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2161,12 +2181,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2175,26 +2195,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.485407</v>
+        <v>-58.489189</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.552985</v>
+        <v>-34.56677</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5600</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MILLER 3988</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2204,7 +2224,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804732247</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2219,7 +2239,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2229,7 +2249,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2239,30 +2259,30 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.492309</v>
+        <v>-58.478732</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.557192</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2272,7 +2292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2287,17 +2307,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2311,26 +2331,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.471885</v>
+        <v>-58.482268</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.571063</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2340,7 +2360,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2355,7 +2375,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2365,7 +2385,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2375,30 +2395,30 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.45573</v>
+        <v>-58.464354</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.556576</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5596</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/16/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PACHECO 3169</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2408,7 +2428,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804787361</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2423,7 +2443,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2433,7 +2453,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2443,30 +2463,30 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.489189</v>
+        <v>-58.489627</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.56677</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2476,7 +2496,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2491,7 +2511,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2511,30 +2531,30 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.478732</v>
+        <v>-58.471481</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.564529</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2544,7 +2564,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2559,12 +2579,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2579,40 +2599,40 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.482268</v>
+        <v>-58.506061</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.578975</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2627,7 +2647,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2637,7 +2657,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2647,30 +2667,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.464354</v>
+        <v>-58.499967</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.572486</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2680,7 +2700,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2695,7 +2715,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2705,7 +2725,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2715,30 +2735,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.489627</v>
+        <v>-58.499355</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.583761</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>5850</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>BLANCO ENCALADA 5402</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2748,7 +2768,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805579030</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2761,11 +2781,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
           <t>1</t>
@@ -2773,7 +2789,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2787,26 +2803,26 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.471481</v>
+        <v>-58.490312</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.570441</v>
+        <v>-34.577914</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>IBERA 4960</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2816,7 +2832,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805676619</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2831,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2841,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2851,30 +2867,30 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.506061</v>
+        <v>-58.489018</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.588887</v>
+        <v>-34.566163</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2884,7 +2900,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,26 +2939,26 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.499967</v>
+        <v>-58.485193</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.57974</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2952,7 +2968,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2967,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2987,30 +3003,30 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.499355</v>
+        <v>-58.49243</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.579354</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5850</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA 5402</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3020,7 +3036,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805579030</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3033,7 +3049,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Columna (metal) inclinada</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>1</t>
@@ -3041,7 +3061,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3051,30 +3071,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.490312</v>
+        <v>-58.513552</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.577914</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3084,7 +3104,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3099,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3109,7 +3129,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3119,40 +3139,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.489018</v>
+        <v>-58.513685</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.566163</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>Paz Soldan 4991</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3167,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3187,30 +3207,30 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.485193</v>
+        <v>-58.468466</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.579621</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3220,7 +3240,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3235,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3259,26 +3279,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.49243</v>
+        <v>-58.480224</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.551559</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3288,7 +3308,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3303,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3313,7 +3333,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3323,30 +3343,30 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.513552</v>
+        <v>-58.476106</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.579829</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>-447</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>Avenida Balbin 3883</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3356,7 +3376,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3371,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3381,7 +3401,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3391,40 +3411,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.513685</v>
+        <v>-58.484982</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.579838</v>
+        <v>-34.554653</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Paz Soldan 4991</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3439,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3449,7 +3469,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3463,281 +3483,9 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.468466</v>
+        <v>-58.468425</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.594154</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>5863</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>5/27/2025</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>QUINTANA 4631</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>806975681</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>-58.480224</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-34.544229</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>5875</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>5/27/2025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>MONROE 4096</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>806975680</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>-58.476106</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-34.568373</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>-447</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>5/28/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Avenida Balbin 3883</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>806975696</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Columna corroida esta desprendida</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>-58.484982</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-34.554653</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>807044192</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>5/29/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>O'Higgins 4379</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>807044192</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>-58.468425</v>
-      </c>
-      <c r="N49" t="n">
         <v>-34.54124</v>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,27 +576,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/2/2024</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 2850</t>
+          <t>DIAZ COLODRERO 3309</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>791898330</t>
+          <t>796186684</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ver foto para ubicar no tiene nodo</t>
+          <t>Colocar columna para solicitar traspasos</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -626,41 +626,45 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M3" t="n">
-        <v>-58.460089</v>
+        <v>-58.491722</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.565514</v>
+        <v>-34.565845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 3309</t>
+          <t>PICO 1511</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>796186684</t>
+          <t>798390296</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -675,7 +679,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Colocar columna para solicitar traspasos</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -685,40 +689,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.491722</v>
+        <v>-58.465596</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.565845</v>
+        <v>-34.53627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>4595</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PICO 1511</t>
+          <t>PAROISSIEN 1806</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -728,7 +732,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798390296</t>
+          <t>802747617</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -743,7 +747,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -763,40 +767,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.465596</v>
+        <v>-58.464172</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.53627</v>
+        <v>-34.543845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4964</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/21/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OLAZABAL 2590</t>
+          <t>ALTOLAGUIRRE 2397</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>799540552</t>
+          <t>802823938</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -811,17 +815,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -835,36 +839,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.459962</v>
+        <v>-58.490766</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.561192</v>
+        <v>-34.576987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAROISSIEN 1806</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>802747617</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -879,12 +883,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -899,40 +903,40 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.464172</v>
+        <v>-58.471774</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.543845</v>
+        <v>-34.565411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1/21/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ALTOLAGUIRRE 2397</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>802823938</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -947,17 +951,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -967,40 +971,40 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.490766</v>
+        <v>-58.44463</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.576987</v>
+        <v>-34.553354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>Rousseau 2087</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1015,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t xml:space="preserve"> poste de Telefonia por caer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1025,7 +1029,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1035,40 +1039,40 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.471774</v>
+        <v>-58.47678</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.565411</v>
+        <v>-34.601336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>DIAZ COLODRERO 2321</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>804309658</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,12 +1087,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1103,40 +1107,40 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.44463</v>
+        <v>-58.485065</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.553354</v>
+        <v>-34.574269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rousseau 2087</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1151,17 +1155,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> poste de Telefonia por caer</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1171,30 +1175,30 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.47678</v>
+        <v>-58.47538</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.601336</v>
+        <v>-34.566015</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 2321</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1204,7 +1208,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804309658</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1219,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1229,7 +1233,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1239,30 +1243,30 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.485065</v>
+        <v>-58.473659</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.574269</v>
+        <v>-34.566979</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>5458</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>LARRALDE, CRISOLOGO AV. 3511</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1272,7 +1276,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804497873</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1287,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1297,7 +1301,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1311,36 +1315,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.47538</v>
+        <v>-58.478025</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.566015</v>
+        <v>-34.554352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1355,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,7 +1369,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1375,20 +1379,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.473659</v>
+        <v>-58.464194</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.566979</v>
+        <v>-34.558092</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5458</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1398,17 +1402,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LARRALDE, CRISOLOGO AV. 3511</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804497873</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1423,7 +1427,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1433,7 +1437,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1443,20 +1447,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.478025</v>
+        <v>-58.46161</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.554352</v>
+        <v>-34.567849</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1466,17 +1470,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1491,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1501,7 +1505,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1511,20 +1515,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.464194</v>
+        <v>-58.507746</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.558092</v>
+        <v>-34.574217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1534,17 +1538,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>QUESADA 3212</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804497908</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1583,16 +1587,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.46161</v>
+        <v>-58.471087</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.567849</v>
+        <v>-34.558545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1602,7 +1606,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1612,7 +1616,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1627,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1651,36 +1655,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.507746</v>
+        <v>-58.50751</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.574217</v>
+        <v>-34.574543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>QUESADA 3212</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804497908</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1715,30 +1719,30 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.471087</v>
+        <v>-58.457701</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.558545</v>
+        <v>-34.552844</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1748,7 +1752,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1763,7 +1767,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1778,45 +1782,45 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.50751</v>
+        <v>-58.485407</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.574543</v>
+        <v>-34.552985</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>MILLER 3988</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732247</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1855,16 +1859,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.457701</v>
+        <v>-58.492309</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.552844</v>
+        <v>-34.557192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1874,7 +1878,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1884,7 +1888,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1899,7 +1903,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1909,12 +1913,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1923,16 +1927,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.485407</v>
+        <v>-58.471885</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.552985</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5600</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1942,17 +1946,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MILLER 3988</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732247</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1991,26 +1995,26 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.492309</v>
+        <v>-58.45573</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.557192</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/16/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>PACHECO 3169</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2020,7 +2024,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804787361</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2059,36 +2063,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.471885</v>
+        <v>-58.489189</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.571063</v>
+        <v>-34.56677</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2103,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2113,7 +2117,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2123,30 +2127,30 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.45573</v>
+        <v>-58.478732</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.556576</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5596</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/16/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PACHECO 3169</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2156,7 +2160,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804787361</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2171,17 +2175,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2195,36 +2199,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.489189</v>
+        <v>-58.482268</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.56677</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2239,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2249,7 +2253,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2263,26 +2267,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.478732</v>
+        <v>-58.464354</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.564529</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2292,7 +2296,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2307,17 +2311,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2327,40 +2331,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.482268</v>
+        <v>-58.489627</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.578975</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2375,7 +2379,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2385,7 +2389,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2395,30 +2399,30 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.464354</v>
+        <v>-58.471481</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.572486</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2428,7 +2432,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2443,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2453,7 +2457,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2467,26 +2471,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.489627</v>
+        <v>-58.506061</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.583761</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2496,7 +2500,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2511,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2521,7 +2525,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2535,16 +2539,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.471481</v>
+        <v>-58.499967</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.570441</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2554,7 +2558,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2564,7 +2568,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2579,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2589,7 +2593,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2599,20 +2603,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.506061</v>
+        <v>-58.499355</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.588887</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5850</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2622,7 +2626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>BLANCO ENCALADA 5402</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2632,7 +2636,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579030</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2645,11 +2649,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>1</t>
@@ -2671,26 +2671,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.499967</v>
+        <v>-58.490312</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.57974</v>
+        <v>-34.577914</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>IBERA 4960</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805676619</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2739,26 +2739,26 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.499355</v>
+        <v>-58.489018</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.579354</v>
+        <v>-34.566163</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5850</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA 5402</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805579030</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2781,7 +2781,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>1</t>
@@ -2803,26 +2807,26 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.490312</v>
+        <v>-58.485193</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.577914</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2832,7 +2836,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2851,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2867,30 +2871,30 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.489018</v>
+        <v>-58.49243</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.566163</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2900,7 +2904,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2919,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2925,7 +2929,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2935,30 +2939,30 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.485193</v>
+        <v>-58.513552</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.579621</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2968,7 +2972,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2987,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2993,7 +2997,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3003,40 +3007,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.49243</v>
+        <v>-58.513685</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.551559</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>Paz Soldan 4991</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3055,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3061,7 +3065,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3071,30 +3075,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.513552</v>
+        <v>-58.468466</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.579829</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3104,7 +3108,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3123,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3129,7 +3133,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3139,40 +3143,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.513685</v>
+        <v>-58.480224</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.579838</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Paz Soldan 4991</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3191,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3207,30 +3211,30 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.468466</v>
+        <v>-58.476106</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.594154</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>-447</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>Avenida Balbin 3883</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3240,7 +3244,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3259,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3275,40 +3279,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.480224</v>
+        <v>-58.484982</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.544229</v>
+        <v>-34.554653</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3327,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3333,7 +3337,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3343,149 +3347,13 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.568373</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>-447</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>5/28/2025</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Avenida Balbin 3883</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>806975696</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Columna corroida esta desprendida</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>-58.484982</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-34.554653</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>807044192</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>5/29/2025</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>O'Higgins 4379</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>807044192</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>-58.468425</v>
-      </c>
-      <c r="N45" t="n">
         <v>-34.54124</v>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -848,27 +848,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>6036</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>MEDRANO 1715</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>803608181</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -881,11 +881,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Columna inclinada</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>0</t>
@@ -893,12 +889,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -907,36 +903,36 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.471774</v>
+        <v>-58.418236</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.565411</v>
+        <v>-34.589859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -951,7 +947,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -961,7 +957,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -971,20 +967,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.44463</v>
+        <v>-58.471774</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.553354</v>
+        <v>-34.565411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -994,17 +990,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rousseau 2087</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,7 +1015,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> poste de Telefonia por caer</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1043,36 +1039,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.47678</v>
+        <v>-58.44463</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.601336</v>
+        <v>-34.553354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 2321</t>
+          <t>Rousseau 2087</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>804309658</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1087,12 +1083,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve"> poste de Telefonia por caer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1107,20 +1103,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.485065</v>
+        <v>-58.47678</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.574269</v>
+        <v>-34.601336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>DIAZ COLODRERO 2321</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1140,7 +1136,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804309658</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1165,7 +1161,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1179,26 +1175,26 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.47538</v>
+        <v>-58.485065</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.566015</v>
+        <v>-34.574269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1208,7 +1204,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,7 +1219,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1233,7 +1229,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1243,30 +1239,30 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.473659</v>
+        <v>-58.47538</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.566979</v>
+        <v>-34.566015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5458</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LARRALDE, CRISOLOGO AV. 3511</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1276,7 +1272,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804497873</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,7 +1287,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1301,7 +1297,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1311,14 +1307,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.478025</v>
+        <v>-58.473659</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.554352</v>
+        <v>-34.566979</v>
       </c>
     </row>
     <row r="14">
@@ -2616,17 +2612,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5850</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA 5402</t>
+          <t>IBERA 4960</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2636,7 +2632,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805579030</t>
+          <t>805676619</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2649,7 +2645,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>1</t>
@@ -2671,26 +2671,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.490312</v>
+        <v>-58.489018</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.577914</v>
+        <v>-34.566163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2739,26 +2739,26 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.489018</v>
+        <v>-58.485193</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.566163</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2803,30 +2803,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.485193</v>
+        <v>-58.49243</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579621</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2871,20 +2871,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.49243</v>
+        <v>-58.513552</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.551559</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2943,36 +2943,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>Paz Soldan 4991</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3007,40 +3007,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.513685</v>
+        <v>-58.468466</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.579838</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Paz Soldan 4991</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3079,16 +3079,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.468466</v>
+        <v>-58.480224</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.594154</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3143,30 +3143,30 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>BALBIN, RICARDO, DR. AV. 3899</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3215,36 +3215,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.476106</v>
+        <v>-58.485111</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.568373</v>
+        <v>-34.554658</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-447</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Avenida Balbin 3883</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3279,40 +3279,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.484982</v>
+        <v>-58.468425</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.554653</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3347,14 +3347,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,27 +1116,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 2321</t>
+          <t>OSORIO 4994</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>804309658</t>
+          <t>804053324</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1149,14 +1149,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1175,16 +1171,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.485065</v>
+        <v>-58.466241</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.574269</v>
+        <v>-34.595741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>DIAZ COLODRERO 2321</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1204,7 +1200,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804309658</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1229,7 +1225,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1243,26 +1239,26 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.47538</v>
+        <v>-58.485065</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.566015</v>
+        <v>-34.574269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1272,7 +1268,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1287,7 +1283,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1297,7 +1293,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1307,40 +1303,40 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.473659</v>
+        <v>-58.47538</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.566979</v>
+        <v>-34.566015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1355,7 +1351,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,7 +1361,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1375,20 +1371,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.464194</v>
+        <v>-58.473659</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.558092</v>
+        <v>-34.566979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1408,7 +1404,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1423,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1443,20 +1439,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.46161</v>
+        <v>-58.464194</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.567849</v>
+        <v>-34.558092</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1466,17 +1462,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1491,7 +1487,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1501,7 +1497,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1515,16 +1511,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.507746</v>
+        <v>-58.46161</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.574217</v>
+        <v>-34.567849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1534,7 +1530,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>QUESADA 3212</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1544,7 +1540,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804497908</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,7 +1555,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1569,7 +1565,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1583,16 +1579,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.471087</v>
+        <v>-58.507746</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.558545</v>
+        <v>-34.574217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1602,7 +1598,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>QUESADA 3212</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1612,7 +1608,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804497908</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1627,7 +1623,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1637,7 +1633,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1651,36 +1647,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.50751</v>
+        <v>-58.471087</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.574543</v>
+        <v>-34.558545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1695,7 +1691,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1705,7 +1701,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1715,40 +1711,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.457701</v>
+        <v>-58.50751</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.552844</v>
+        <v>-34.574543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1763,7 +1759,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1773,12 +1769,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1787,16 +1783,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.485407</v>
+        <v>-58.457701</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.552985</v>
+        <v>-34.552844</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5600</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1806,7 +1802,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MILLER 3988</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1816,7 +1812,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804732247</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1831,7 +1827,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1841,12 +1837,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1855,16 +1851,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.492309</v>
+        <v>-58.485407</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.557192</v>
+        <v>-34.552985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1874,7 +1870,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>MILLER 3988</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1884,7 +1880,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732247</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1923,16 +1919,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.471885</v>
+        <v>-58.492309</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.571063</v>
+        <v>-34.557192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1942,17 +1938,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1991,36 +1987,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.45573</v>
+        <v>-58.471885</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.556576</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5596</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/16/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PACHECO 3169</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804787361</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2059,26 +2055,26 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.489189</v>
+        <v>-58.45573</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.56677</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/16/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>PACHECO 3169</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2088,7 +2084,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804787361</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2103,7 +2099,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2113,7 +2109,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2123,30 +2119,30 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.478732</v>
+        <v>-58.489189</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.564529</v>
+        <v>-34.56677</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2156,7 +2152,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2171,12 +2167,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2191,40 +2187,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.482268</v>
+        <v>-58.478732</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.578975</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2239,17 +2235,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2259,40 +2255,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.464354</v>
+        <v>-58.482268</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.572486</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2307,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2331,26 +2327,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.489627</v>
+        <v>-58.464354</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.583761</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2360,7 +2356,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2375,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2385,7 +2381,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2395,30 +2391,30 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.471481</v>
+        <v>-58.489627</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.570441</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2428,7 +2424,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2443,7 +2439,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2463,20 +2459,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.506061</v>
+        <v>-58.471481</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.588887</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2486,7 +2482,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2496,7 +2492,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2511,7 +2507,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2521,7 +2517,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2531,20 +2527,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.499967</v>
+        <v>-58.506061</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.57974</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2554,7 +2550,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2564,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2603,26 +2599,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.499355</v>
+        <v>-58.499967</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579354</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2632,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2647,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2671,26 +2667,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.489018</v>
+        <v>-58.499355</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.566163</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>IBERA 4960</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2700,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805676619</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2715,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2739,26 +2735,26 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.485193</v>
+        <v>-58.489018</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.579621</v>
+        <v>-34.566163</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2768,7 +2764,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2783,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2803,30 +2799,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.49243</v>
+        <v>-58.485193</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.551559</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2836,7 +2832,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2851,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2861,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2871,20 +2867,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513552</v>
+        <v>-58.49243</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579829</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2894,7 +2890,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2904,7 +2900,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2919,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2929,7 +2925,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2943,36 +2939,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.513685</v>
+        <v>-58.513552</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.579838</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Paz Soldan 4991</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2987,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2997,7 +2993,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3007,40 +3003,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.468466</v>
+        <v>-58.513685</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.594154</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>PAZ SOLDAN 4991</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3055,7 +3051,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3079,16 +3075,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.480224</v>
+        <v>-58.468466</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.544229</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3098,7 +3094,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3108,7 +3104,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3123,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3143,30 +3139,30 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.476106</v>
+        <v>-58.480224</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.568373</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BALBIN, RICARDO, DR. AV. 3899</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3176,7 +3172,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3191,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3215,36 +3211,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.485111</v>
+        <v>-58.476106</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.554658</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>BALBIN, RICARDO, DR. AV. 3899</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3259,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3269,7 +3265,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3279,81 +3275,149 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.468425</v>
+        <v>-58.485111</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.54124</v>
+        <v>-34.554658</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>807044192</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5/29/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>O'Higgins 4379</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>807044192</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>-58.468425</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-34.54124</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>6020</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>6/5/2025</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>807215465</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="M44" t="n">
         <v>-58.436298</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N44" t="n">
         <v>-34.578972</v>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1860,7 +1860,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5600</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MILLER 3988</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732247</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1919,16 +1919,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.492309</v>
+        <v>-58.471885</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.557192</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1938,17 +1938,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1987,36 +1987,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.471885</v>
+        <v>-58.45573</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.571063</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2051,30 +2051,30 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.45573</v>
+        <v>-58.478732</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.556576</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5596</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/16/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PACHECO 3169</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804787361</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2123,36 +2123,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.489189</v>
+        <v>-58.482268</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.56677</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2191,26 +2191,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.478732</v>
+        <v>-58.464354</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.564529</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,17 +2235,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2255,40 +2255,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.482268</v>
+        <v>-58.489627</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.578975</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2323,30 +2323,30 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.464354</v>
+        <v>-58.471481</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.572486</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2395,26 +2395,26 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.489627</v>
+        <v>-58.506061</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.583761</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2463,16 +2463,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.471481</v>
+        <v>-58.499967</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.570441</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2527,30 +2527,30 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.506061</v>
+        <v>-58.499355</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.588887</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>IBERA 4960</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805676619</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2599,26 +2599,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.499967</v>
+        <v>-58.489018</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.57974</v>
+        <v>-34.566163</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2667,26 +2667,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.499355</v>
+        <v>-58.485193</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579354</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2731,30 +2731,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.489018</v>
+        <v>-58.49243</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.566163</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2799,30 +2799,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.485193</v>
+        <v>-58.513552</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579621</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2867,40 +2867,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.49243</v>
+        <v>-58.513685</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.551559</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ SOLDAN 4991</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2935,30 +2935,30 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.513552</v>
+        <v>-58.468466</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.579829</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3003,40 +3003,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.513685</v>
+        <v>-58.480224</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.579838</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PAZ SOLDAN 4991</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3071,30 +3071,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.468466</v>
+        <v>-58.476106</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.594154</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>BALBIN, RICARDO, DR. AV. 3899</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3139,40 +3139,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.480224</v>
+        <v>-58.485111</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.544229</v>
+        <v>-34.554658</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3207,40 +3207,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.568373</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BALBIN, RICARDO, DR. AV. 3899</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3279,36 +3279,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.485111</v>
+        <v>-58.436298</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.554658</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3343,40 +3343,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.468425</v>
+        <v>-58.480925</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.54124</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3415,10 +3415,78 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.436298</v>
+        <v>-58.495071</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.578972</v>
+        <v>-34.593122</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6/11/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>EL PAMPERO 2618</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>807458310</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>-58.481942</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-34.602989</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3489,6 +3489,74 @@
         <v>-34.602989</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>-478</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6/15/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Chivilcoy 4875</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>807508509</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Poste podrido</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>-58.517389</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-34.593541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5/24/2024</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>788826017</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Terminal con rienda</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -563,40 +563,40 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.467279</v>
+        <v>-58.517389</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.551117</v>
+        <v>-34.593541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 3309</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>796186684</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Colocar columna para solicitar traspasos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -635,36 +635,36 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.491722</v>
+        <v>-58.480925</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.565845</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PICO 1511</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>798390296</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -699,40 +699,40 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.465596</v>
+        <v>-58.495071</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.53627</v>
+        <v>-34.593122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAROISSIEN 1806</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>802747617</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -767,40 +767,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.464172</v>
+        <v>-58.481942</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.543845</v>
+        <v>-34.602989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1/21/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALTOLAGUIRRE 2397</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>802823938</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -839,36 +839,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.490766</v>
+        <v>-58.436298</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.576987</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6036</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEDRANO 1715</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>803608181</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -881,48 +881,52 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste </t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.418236</v>
+        <v>-58.468425</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.589859</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>BALBIN, RICARDO, DR. AV. 3899</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -932,7 +936,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -947,17 +951,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -971,36 +975,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.471774</v>
+        <v>-58.485111</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.565411</v>
+        <v>-34.554658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1015,60 +1019,60 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>Poste quebrado</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
       <c r="M9" t="n">
-        <v>-58.44463</v>
+        <v>-58.480224</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.553354</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rousseau 2087</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,12 +1087,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> poste de Telefonia por caer</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1103,30 +1107,30 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.47678</v>
+        <v>-58.476106</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.601336</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OSORIO 4994</t>
+          <t>PAZ SOLDAN 4991</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1136,7 +1140,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>804053324</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1149,10 +1153,14 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Poste inclinado, cambiar o desmontar</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1167,30 +1175,30 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.466241</v>
+        <v>-58.468466</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.595741</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 2321</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1200,7 +1208,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804309658</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1215,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1225,7 +1233,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1235,30 +1243,30 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.485065</v>
+        <v>-58.513552</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.574269</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1268,7 +1276,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1283,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,7 +1301,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1303,30 +1311,30 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.47538</v>
+        <v>-58.513685</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.566015</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1336,7 +1344,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1351,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1361,7 +1369,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1371,40 +1379,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.473659</v>
+        <v>-58.49243</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.566979</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1419,7 +1427,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1443,36 +1451,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.464194</v>
+        <v>-58.485193</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.558092</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>IBERA 4960</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>805676619</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1487,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1507,30 +1515,30 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.46161</v>
+        <v>-58.489018</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.567849</v>
+        <v>-34.566163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1540,7 +1548,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1575,30 +1583,30 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.507746</v>
+        <v>-58.506061</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.574217</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>QUESADA 3212</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1608,7 +1616,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804497908</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1643,30 +1651,30 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.471087</v>
+        <v>-58.499967</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.558545</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1676,7 +1684,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1691,7 +1699,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1701,7 +1709,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1711,40 +1719,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.50751</v>
+        <v>-58.499355</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.574543</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,7 +1767,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1769,7 +1777,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1783,26 +1791,26 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.457701</v>
+        <v>-58.471481</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.552844</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1812,7 +1820,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1827,7 +1835,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1837,50 +1845,50 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.485407</v>
+        <v>-58.489627</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.552985</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1895,7 +1903,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1905,7 +1913,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1915,40 +1923,40 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.471885</v>
+        <v>-58.464354</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.571063</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,7 +1971,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1973,7 +1981,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1983,30 +1991,30 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.45573</v>
+        <v>-58.478732</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.556576</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2016,7 +2024,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2039,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2046,35 +2054,35 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.478732</v>
+        <v>-58.485407</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.564529</v>
+        <v>-34.552985</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2084,7 +2092,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,17 +2107,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2123,26 +2131,26 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.482268</v>
+        <v>-58.471885</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.578975</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2152,7 +2160,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2177,7 +2185,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2187,30 +2195,30 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.464354</v>
+        <v>-58.45573</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.572486</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2220,7 +2228,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,17 +2243,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2255,40 +2263,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.489627</v>
+        <v>-58.482268</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.583761</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2313,7 +2321,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2327,36 +2335,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.471481</v>
+        <v>-58.457701</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.570441</v>
+        <v>-34.552844</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2379,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2381,7 +2389,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2391,40 +2399,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.506061</v>
+        <v>-58.464194</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.588887</v>
+        <v>-34.558092</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2459,30 +2467,30 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.499967</v>
+        <v>-58.46161</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.57974</v>
+        <v>-34.567849</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2492,7 +2500,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2507,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2517,7 +2525,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2527,30 +2535,30 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.499355</v>
+        <v>-58.507746</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.579354</v>
+        <v>-34.574217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>QUESADA 3212</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2560,7 +2568,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>804497908</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2575,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2595,30 +2603,30 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.489018</v>
+        <v>-58.471087</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.566163</v>
+        <v>-34.558545</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2636,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2653,7 +2661,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2663,30 +2671,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.485193</v>
+        <v>-58.50751</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579621</v>
+        <v>-34.574543</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2704,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2721,7 +2729,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2731,30 +2739,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.49243</v>
+        <v>-58.473659</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.551559</v>
+        <v>-34.566979</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>DIAZ COLODRERO 2321</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2764,7 +2772,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>804309658</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2789,7 +2797,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2799,30 +2807,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.513552</v>
+        <v>-58.485065</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579829</v>
+        <v>-34.574269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2832,7 +2840,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2855,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2865,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2867,30 +2875,30 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513685</v>
+        <v>-58.47538</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579838</v>
+        <v>-34.566015</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PAZ SOLDAN 4991</t>
+          <t>OSORIO 4994</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2900,7 +2908,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>804053324</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2913,14 +2921,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2935,40 +2939,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.468466</v>
+        <v>-58.466241</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.594154</v>
+        <v>-34.595741</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,12 +2987,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3007,36 +3011,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.480224</v>
+        <v>-58.44463</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.544229</v>
+        <v>-34.553354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>Rousseau 2087</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,12 +3055,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve"> poste de Telefonia por caer</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3071,30 +3075,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.476106</v>
+        <v>-58.47678</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.568373</v>
+        <v>-34.601336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BALBIN, RICARDO, DR. AV. 3899</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3104,7 +3108,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,17 +3123,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3143,36 +3147,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.485111</v>
+        <v>-58.471774</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.554658</v>
+        <v>-34.565411</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6036</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>MEDRANO 1715</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>803608181</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3185,62 +3189,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste </t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.468425</v>
+        <v>-58.418236</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.54124</v>
+        <v>-34.589859</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>1/21/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>ALTOLAGUIRRE 2397</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>802823938</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3279,36 +3279,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.436298</v>
+        <v>-58.490766</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.578972</v>
+        <v>-34.576987</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>4595</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>PAROISSIEN 1806</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>802747617</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3343,40 +3343,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.480925</v>
+        <v>-58.464172</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.585471</v>
+        <v>-34.543845</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>PICO 1511</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>798390296</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3411,40 +3411,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.495071</v>
+        <v>-58.465596</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.593122</v>
+        <v>-34.53627</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>DIAZ COLODRERO 3309</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>796186684</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para solicitar traspasos</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3483,36 +3483,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.481942</v>
+        <v>-58.491722</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.602989</v>
+        <v>-34.565845</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>5/24/2024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>788826017</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Terminal con rienda</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3547,14 +3547,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.517389</v>
+        <v>-58.467279</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.593541</v>
+        <v>-34.551117</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>5/24/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>788826017</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Terminal con rienda</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -563,40 +563,40 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.517389</v>
+        <v>-58.467279</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.593541</v>
+        <v>-34.551117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>9/10/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>DIAZ COLODRERO 3309</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>796186684</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para solicitar traspasos</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -635,36 +635,36 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.480925</v>
+        <v>-58.491722</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.585471</v>
+        <v>-34.565845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>10/23/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>PICO 1511</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>798390296</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -699,40 +699,40 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.495071</v>
+        <v>-58.465596</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.593122</v>
+        <v>-34.53627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>4595</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>PAROISSIEN 1806</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>802747617</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -767,40 +767,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.481942</v>
+        <v>-58.464172</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.602989</v>
+        <v>-34.543845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>1/21/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>ALTOLAGUIRRE 2397</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>802823938</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -839,36 +839,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.436298</v>
+        <v>-58.490766</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.578972</v>
+        <v>-34.576987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6036</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>MEDRANO 1715</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>803608181</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -881,52 +881,48 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste </t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.468425</v>
+        <v>-58.418236</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.54124</v>
+        <v>-34.589859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BALBIN, RICARDO, DR. AV. 3899</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -936,7 +932,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -951,17 +947,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -975,36 +971,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.485111</v>
+        <v>-58.471774</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.554658</v>
+        <v>-34.565411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,12 +1015,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1043,36 +1039,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.480224</v>
+        <v>-58.44463</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.544229</v>
+        <v>-34.553354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>Rousseau 2087</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>803969337</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1087,12 +1083,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve"> poste de Telefonia por caer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1107,30 +1103,30 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.476106</v>
+        <v>-58.47678</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.568373</v>
+        <v>-34.601336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PAZ SOLDAN 4991</t>
+          <t>OSORIO 4994</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1140,7 +1136,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>804053324</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1153,14 +1149,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1175,30 +1167,30 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.468466</v>
+        <v>-58.466241</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.594154</v>
+        <v>-34.595741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>DIAZ COLODRERO 2321</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1208,7 +1200,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>804309658</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,7 +1215,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1233,7 +1225,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1243,30 +1235,30 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.513552</v>
+        <v>-58.485065</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579829</v>
+        <v>-34.574269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1276,7 +1268,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,7 +1283,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1301,7 +1293,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1311,30 +1303,30 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.513685</v>
+        <v>-58.47538</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.579838</v>
+        <v>-34.566015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1344,7 +1336,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1369,7 +1361,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1379,40 +1371,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.49243</v>
+        <v>-58.473659</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.551559</v>
+        <v>-34.566979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1427,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1451,36 +1443,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.485193</v>
+        <v>-58.464194</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.579621</v>
+        <v>-34.558092</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1495,7 +1487,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1515,30 +1507,30 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.489018</v>
+        <v>-58.46161</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.566163</v>
+        <v>-34.567849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1548,7 +1540,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,7 +1555,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1583,30 +1575,30 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.506061</v>
+        <v>-58.507746</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.588887</v>
+        <v>-34.574217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>QUESADA 3212</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1616,7 +1608,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>804497908</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1651,30 +1643,30 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.499967</v>
+        <v>-58.471087</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.57974</v>
+        <v>-34.558545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1684,7 +1676,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1699,7 +1691,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1709,7 +1701,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1719,40 +1711,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.499355</v>
+        <v>-58.50751</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.579354</v>
+        <v>-34.574543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1767,7 +1759,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1777,7 +1769,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1791,26 +1783,26 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.471481</v>
+        <v>-58.457701</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.570441</v>
+        <v>-34.552844</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1820,7 +1812,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1835,7 +1827,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1845,50 +1837,50 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.489627</v>
+        <v>-58.485407</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.583761</v>
+        <v>-34.552985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,7 +1895,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1913,7 +1905,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1923,40 +1915,40 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.464354</v>
+        <v>-58.471885</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.572486</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,7 +1963,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1981,7 +1973,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1991,30 +1983,30 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.478732</v>
+        <v>-58.45573</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.564529</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2024,7 +2016,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2039,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2054,35 +2046,35 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.485407</v>
+        <v>-58.478732</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.552985</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2092,7 +2084,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,17 +2099,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2131,26 +2123,26 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.471885</v>
+        <v>-58.482268</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.571063</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2160,7 +2152,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2185,7 +2177,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2195,30 +2187,30 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.45573</v>
+        <v>-58.464354</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.556576</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2228,7 +2220,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,17 +2235,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2263,40 +2255,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.482268</v>
+        <v>-58.489627</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.578975</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2321,7 +2313,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2335,36 +2327,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.457701</v>
+        <v>-58.471481</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.552844</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2379,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2389,7 +2381,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2399,40 +2391,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.464194</v>
+        <v>-58.506061</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.558092</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2467,30 +2459,30 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.46161</v>
+        <v>-58.499967</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.567849</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2500,7 +2492,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2507,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2525,7 +2517,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2535,30 +2527,30 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.507746</v>
+        <v>-58.499355</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.574217</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>QUESADA 3212</t>
+          <t>IBERA 4960</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2568,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804497908</t>
+          <t>805676619</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2575,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2603,30 +2595,30 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.471087</v>
+        <v>-58.489018</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.558545</v>
+        <v>-34.566163</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2636,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2661,7 +2653,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2671,30 +2663,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.50751</v>
+        <v>-58.485193</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.574543</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2704,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2729,7 +2721,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2739,30 +2731,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.473659</v>
+        <v>-58.49243</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.566979</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 2321</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2772,7 +2764,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804309658</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2797,7 +2789,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2807,30 +2799,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.485065</v>
+        <v>-58.513552</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.574269</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2840,7 +2832,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2855,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2865,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2875,30 +2867,30 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.47538</v>
+        <v>-58.513685</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.566015</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OSORIO 4994</t>
+          <t>PAZ SOLDAN 4991</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2908,7 +2900,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804053324</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2921,10 +2913,14 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Poste inclinado, cambiar o desmontar</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2939,40 +2935,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.466241</v>
+        <v>-58.468466</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.595741</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2987,60 +2983,60 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>Poste quebrado</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
       <c r="M38" t="n">
-        <v>-58.44463</v>
+        <v>-58.480224</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.553354</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rousseau 2087</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3055,12 +3051,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> poste de Telefonia por caer</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3075,30 +3071,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.47678</v>
+        <v>-58.476106</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.601336</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>BALBIN, RICARDO, DR. AV. 3899</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3108,7 +3104,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3123,17 +3119,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3147,36 +3143,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.471774</v>
+        <v>-58.485111</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.565411</v>
+        <v>-34.554658</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6036</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MEDRANO 1715</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>803608181</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3189,58 +3185,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste </t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.418236</v>
+        <v>-58.468425</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.589859</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1/21/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALTOLAGUIRRE 2397</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>802823938</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3279,36 +3279,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.490766</v>
+        <v>-58.436298</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.576987</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PAROISSIEN 1806</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>802747617</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3343,40 +3343,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.464172</v>
+        <v>-58.480925</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.543845</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10/23/2024</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PICO 1511</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>798390296</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3411,40 +3411,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.465596</v>
+        <v>-58.495071</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.53627</v>
+        <v>-34.593122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9/10/2024</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 3309</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>796186684</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna para solicitar traspasos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3483,36 +3483,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.491722</v>
+        <v>-58.481942</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.565845</v>
+        <v>-34.602989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/24/2024</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>788826017</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Terminal con rienda</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3547,14 +3547,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.467279</v>
+        <v>-58.517389</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.551117</v>
+        <v>-34.593541</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2336,27 +2336,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2391,20 +2391,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.506061</v>
+        <v>-58.420549</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.588887</v>
+        <v>-34.585103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2459,20 +2459,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.499967</v>
+        <v>-58.506061</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.57974</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,26 +2531,26 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.499355</v>
+        <v>-58.499967</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.579354</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2599,26 +2599,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.489018</v>
+        <v>-58.499355</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.566163</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>IBERA 4960</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805676619</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2667,26 +2667,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.485193</v>
+        <v>-58.489018</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579621</v>
+        <v>-34.566163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2731,30 +2731,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.49243</v>
+        <v>-58.485193</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.551559</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2799,20 +2799,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.513552</v>
+        <v>-58.49243</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579829</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2871,36 +2871,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513685</v>
+        <v>-58.513552</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579838</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PAZ SOLDAN 4991</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2935,40 +2935,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.468466</v>
+        <v>-58.513685</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.594154</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>PAZ SOLDAN 4991</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3007,16 +3007,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.480224</v>
+        <v>-58.468466</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.544229</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3071,30 +3071,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.476106</v>
+        <v>-58.480224</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.568373</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BALBIN, RICARDO, DR. AV. 3899</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3143,36 +3143,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.485111</v>
+        <v>-58.476106</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.554658</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>BALBIN, RICARDO, DR. AV. 3899</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3207,40 +3207,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.468425</v>
+        <v>-58.485111</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.54124</v>
+        <v>-34.554658</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3275,40 +3275,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.436298</v>
+        <v>-58.468425</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.578972</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3347,16 +3347,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.480925</v>
+        <v>-58.436298</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.585471</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.495071</v>
+        <v>-58.480925</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.593122</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3434,17 +3434,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3483,78 +3483,214 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.481942</v>
+        <v>-58.495071</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.602989</v>
+        <v>-34.593122</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6/11/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>EL PAMPERO 2618</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>807458310</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>-58.481942</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-34.602989</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>-478</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>6/15/2025</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Chivilcoy 4875</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>807508509</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Poste podrido</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="M47" t="n">
         <v>-58.517389</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N47" t="n">
         <v>-34.593541</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6171</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>6/18/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CABELLO 3486</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>807658640</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>-58.409579</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-34.581134</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,29 +1048,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3/11/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ROUSSEAU, JUAN J. 2087</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>803969337</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3/11/2025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Rousseau 2087</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>803969337</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>NEW</t>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIAZ COLODRERO 2321</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804309658</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1239,26 +1239,26 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.485065</v>
+        <v>-58.47538</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.574269</v>
+        <v>-34.566015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1303,40 +1303,40 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.47538</v>
+        <v>-58.473659</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.566015</v>
+        <v>-34.566979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1371,20 +1371,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.473659</v>
+        <v>-58.464194</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.566979</v>
+        <v>-34.558092</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1439,20 +1439,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.464194</v>
+        <v>-58.46161</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.558092</v>
+        <v>-34.567849</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1462,17 +1462,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.46161</v>
+        <v>-58.507746</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.567849</v>
+        <v>-34.574217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>QUESADA 3212</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804497908</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1579,16 +1579,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.507746</v>
+        <v>-58.471087</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.574217</v>
+        <v>-34.558545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>QUESADA 3212</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804497908</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1647,36 +1647,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.471087</v>
+        <v>-58.50751</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.558545</v>
+        <v>-34.574543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1711,40 +1711,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.50751</v>
+        <v>-58.457701</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.574543</v>
+        <v>-34.552844</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1769,12 +1769,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1783,16 +1783,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.457701</v>
+        <v>-58.485407</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.552844</v>
+        <v>-34.552985</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1851,16 +1851,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.485407</v>
+        <v>-58.471885</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.552985</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1870,17 +1870,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1919,36 +1919,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.471885</v>
+        <v>-58.45573</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.571063</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1983,30 +1983,30 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.45573</v>
+        <v>-58.478732</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.556576</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,12 +2031,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2051,40 +2051,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.478732</v>
+        <v>-58.482268</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.564529</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2119,40 +2119,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.482268</v>
+        <v>-58.464354</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.578975</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2191,26 +2191,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.464354</v>
+        <v>-58.489627</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.572486</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2255,20 +2255,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.489627</v>
+        <v>-58.471481</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.583761</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2278,17 +2278,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2327,36 +2327,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.471481</v>
+        <v>-58.420549</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.570441</v>
+        <v>-34.585103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2391,20 +2391,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.420549</v>
+        <v>-58.506061</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.585103</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2459,20 +2459,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.506061</v>
+        <v>-58.499967</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.588887</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,26 +2531,26 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.499967</v>
+        <v>-58.499355</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.57974</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2599,36 +2599,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.499355</v>
+        <v>-58.485193</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579354</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IBERA 4960</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805676619</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna corroída en la base tiene 2 CDO </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2667,26 +2667,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.489018</v>
+        <v>-58.441563</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.566163</v>
+        <v>-34.569743</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2731,30 +2731,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.485193</v>
+        <v>-58.49243</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.579621</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2799,20 +2799,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.49243</v>
+        <v>-58.513552</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.551559</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2871,36 +2871,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>PAZ SOLDAN 4991</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2935,40 +2935,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.513685</v>
+        <v>-58.468466</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.579838</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PAZ SOLDAN 4991</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3007,16 +3007,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.468466</v>
+        <v>-58.480224</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.594154</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3071,30 +3071,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>BALBIN, RICARDO, DR. AV. 3899</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3143,36 +3143,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.476106</v>
+        <v>-58.485111</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.568373</v>
+        <v>-34.554658</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BALBIN, RICARDO, DR. AV. 3899</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3207,40 +3207,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.485111</v>
+        <v>-58.468425</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.554658</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3275,40 +3275,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3347,16 +3347,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3434,17 +3434,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3483,26 +3483,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3547,40 +3547,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3615,30 +3615,30 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3646,11 +3646,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>807658640</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
           <t>NEW</t>
@@ -3663,7 +3659,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3687,10 +3683,138 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6231</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ciudad de la Paz 275</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Aplomar o cambiar</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.441049</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.574625</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Huergo 389</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>-58.432722</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.572371</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -3646,7 +3646,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>807763066</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>NEW</t>
@@ -3710,7 +3714,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>807763070</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>NEW</t>
@@ -3766,7 +3774,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Huergo 389</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3774,7 +3782,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>807763078</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>NEW</t>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -1048,17 +1048,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ROUSSEAU, JUAN J. 2087</t>
+          <t>OSORIO 4994</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>803969337</t>
+          <t>804053324</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1081,14 +1081,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> poste de Telefonia por caer</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1103,40 +1099,40 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.47678</v>
+        <v>-58.466241</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.601336</v>
+        <v>-34.595741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OSORIO 4994</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>804053324</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1149,15 +1145,19 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1171,26 +1171,26 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.466241</v>
+        <v>-58.47538</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.595741</v>
+        <v>-34.566015</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1235,40 +1235,40 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.47538</v>
+        <v>-58.473659</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.566015</v>
+        <v>-34.566979</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1303,20 +1303,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.473659</v>
+        <v>-58.464194</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.566979</v>
+        <v>-34.558092</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1371,20 +1371,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.464194</v>
+        <v>-58.46161</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.558092</v>
+        <v>-34.567849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1443,16 +1443,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.46161</v>
+        <v>-58.507746</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.567849</v>
+        <v>-34.574217</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>QUESADA 3212</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804497908</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.507746</v>
+        <v>-58.471087</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.574217</v>
+        <v>-34.558545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>QUESADA 3212</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804497908</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1579,36 +1579,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.471087</v>
+        <v>-58.50751</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.558545</v>
+        <v>-34.574543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1643,40 +1643,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.50751</v>
+        <v>-58.457701</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.574543</v>
+        <v>-34.552844</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1715,16 +1715,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.457701</v>
+        <v>-58.485407</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.552844</v>
+        <v>-34.552985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1769,12 +1769,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1783,16 +1783,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.485407</v>
+        <v>-58.471885</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.552985</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1802,17 +1802,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1851,36 +1851,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.471885</v>
+        <v>-58.45573</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.571063</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1915,30 +1915,30 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.45573</v>
+        <v>-58.478732</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.556576</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1983,40 +1983,40 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.478732</v>
+        <v>-58.482268</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.564529</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2051,40 +2051,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.482268</v>
+        <v>-58.464354</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.578975</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2123,26 +2123,26 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.464354</v>
+        <v>-58.489627</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.572486</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2187,20 +2187,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.489627</v>
+        <v>-58.471481</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.583761</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2259,36 +2259,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.471481</v>
+        <v>-58.420549</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.570441</v>
+        <v>-34.585103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2323,20 +2323,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.420549</v>
+        <v>-58.506061</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.585103</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2391,20 +2391,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.506061</v>
+        <v>-58.499967</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.588887</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2463,26 +2463,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.499967</v>
+        <v>-58.499355</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.57974</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,36 +2531,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.499355</v>
+        <v>-58.485193</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.579354</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2599,36 +2599,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.485193</v>
+        <v>-58.441563</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579621</v>
+        <v>-34.569743</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2663,30 +2663,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.441563</v>
+        <v>-58.49243</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.569743</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2731,20 +2731,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.49243</v>
+        <v>-58.513552</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.551559</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2803,36 +2803,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>PAZ SOLDAN 4991</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2867,40 +2867,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513685</v>
+        <v>-58.468466</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579838</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PAZ SOLDAN 4991</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2939,16 +2939,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.468466</v>
+        <v>-58.480224</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.594154</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3003,30 +3003,30 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>BALBIN, RICARDO, DR. AV. 3899</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3075,36 +3075,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.476106</v>
+        <v>-58.485111</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.568373</v>
+        <v>-34.554658</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BALBIN, RICARDO, DR. AV. 3899</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3139,40 +3139,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.485111</v>
+        <v>-58.468425</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.554658</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3207,40 +3207,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3347,16 +3347,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3366,17 +3366,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3415,26 +3415,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3479,40 +3479,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3547,30 +3547,30 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3619,16 +3619,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3683,20 +3683,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6233</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3706,17 +3706,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3751,40 +3751,40 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6233</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3819,14 +3819,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.432722</v>
+        <v>-58.479742</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.572371</v>
+        <v>-34.546292</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1452,7 +1452,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>QUESADA 3212</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804497908</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1511,36 +1511,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.471087</v>
+        <v>-58.50751</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.558545</v>
+        <v>-34.574543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1575,40 +1575,40 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.50751</v>
+        <v>-58.457701</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.574543</v>
+        <v>-34.552844</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1633,12 +1633,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1647,16 +1647,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.457701</v>
+        <v>-58.485407</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.552844</v>
+        <v>-34.552985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1715,16 +1715,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.485407</v>
+        <v>-58.471885</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.552985</v>
+        <v>-34.571063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1783,36 +1783,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.471885</v>
+        <v>-58.45573</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.571063</v>
+        <v>-34.556576</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>TRONADOR 2861</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804820700</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o desmontar poste, ver con inspector</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1847,30 +1847,30 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.45573</v>
+        <v>-58.478732</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.556576</v>
+        <v>-34.564529</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1895,12 +1895,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1915,40 +1915,40 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.478732</v>
+        <v>-58.482268</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.564529</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,17 +1963,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1983,40 +1983,40 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.482268</v>
+        <v>-58.464354</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.578975</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2055,26 +2055,26 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.464354</v>
+        <v>-58.489627</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.572486</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2119,20 +2119,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.489627</v>
+        <v>-58.471481</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.583761</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2191,36 +2191,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.471481</v>
+        <v>-58.420549</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.570441</v>
+        <v>-34.585103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2255,20 +2255,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.420549</v>
+        <v>-58.506061</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.585103</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2323,20 +2323,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.506061</v>
+        <v>-58.499967</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.588887</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2395,26 +2395,26 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.499967</v>
+        <v>-58.499355</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.57974</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2463,36 +2463,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.499355</v>
+        <v>-58.485193</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.579354</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,36 +2531,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.485193</v>
+        <v>-58.441563</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.579621</v>
+        <v>-34.569743</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2595,30 +2595,30 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.441563</v>
+        <v>-58.49243</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.569743</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2663,20 +2663,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.49243</v>
+        <v>-58.513552</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.551559</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2735,36 +2735,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>PAZ SOLDAN 4991</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926510</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste inclinado, cambiar o desmontar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2799,40 +2799,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.513685</v>
+        <v>-58.468466</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579838</v>
+        <v>-34.594154</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAZ SOLDAN 4991</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2871,16 +2871,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.468466</v>
+        <v>-58.480224</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.594154</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2935,30 +2935,30 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>BALBIN, RICARDO, DR. AV. 3899</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975696</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida esta desprendida</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3007,36 +3007,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.476106</v>
+        <v>-58.485111</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.568373</v>
+        <v>-34.554658</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BALBIN, RICARDO, DR. AV. 3899</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3071,40 +3071,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.485111</v>
+        <v>-58.468425</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.554658</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3139,40 +3139,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3298,17 +3298,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3347,26 +3347,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3411,40 +3411,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3479,30 +3479,30 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3551,16 +3551,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3615,20 +3615,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6233</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3638,17 +3638,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3683,40 +3683,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6233</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3751,81 +3751,13 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.432722</v>
+        <v>-58.479742</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.572371</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>-492</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Correa 3087</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>807789705</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>-58.479742</v>
-      </c>
-      <c r="N50" t="n">
         <v>-34.546292</v>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3761,6 +3761,210 @@
         <v>-34.546292</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>-495</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6/30/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ricardo Balbin 3827</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">807846850 </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Picada sin fotos pasa Pedro</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>-58.484375</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.554597</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>-496</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>6/30/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ricardo Balbin 3851</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>807846856</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Picada sin fotos pasa Pedro</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>-58.484761</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.554643</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6279</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6/30/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CORREA 3850</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>807847111</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>-58.486971</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-34.550135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -2948,27 +2948,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BALBIN, RICARDO, DR. AV. 3899</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806975696</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna corroida esta desprendida</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3003,40 +3003,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.485111</v>
+        <v>-58.468425</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.554658</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3071,40 +3071,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3143,16 +3143,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3230,17 +3230,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3279,26 +3279,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3343,40 +3343,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3411,30 +3411,30 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3483,16 +3483,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3547,20 +3547,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6233</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3570,17 +3570,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3615,40 +3615,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6233</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3683,30 +3683,30 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.432722</v>
+        <v>-58.479742</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.572371</v>
+        <v>-34.546292</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>-495</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>Ricardo Balbin 3827</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t xml:space="preserve">807846850 </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Picada sin fotos pasa Pedro</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3751,20 +3751,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.479742</v>
+        <v>-58.484375</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.546292</v>
+        <v>-34.554597</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-495</t>
+          <t>-496</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ricardo Balbin 3827</t>
+          <t>Ricardo Balbin 3851</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">807846850 </t>
+          <t>807846856</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3823,16 +3823,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.484375</v>
+        <v>-58.484761</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.554597</v>
+        <v>-34.554643</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-496</t>
+          <t>6279</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ricardo Balbin 3851</t>
+          <t>CORREA 3850</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807846856</t>
+          <t>807847111</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3867,12 +3867,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada sin fotos pasa Pedro</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.484761</v>
+        <v>-58.486971</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.554643</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6279</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3910,17 +3910,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CORREA 3850</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807847111</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.486971</v>
+        <v>-58.436808</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.550135</v>
+        <v>-34.577464</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3764,7 +3764,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-496</t>
+          <t>6279</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ricardo Balbin 3851</t>
+          <t>CORREA 3850</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807846856</t>
+          <t>807847111</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3799,12 +3799,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada sin fotos pasa Pedro</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3823,16 +3823,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.484761</v>
+        <v>-58.486971</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.554643</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6279</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3842,17 +3842,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CORREA 3850</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807847111</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3891,77 +3891,9 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.486971</v>
+        <v>-58.436808</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.550135</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>6295</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SOLER 6017</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>807851636</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>-58.436808</v>
-      </c>
-      <c r="N52" t="n">
         <v>-34.577464</v>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2744,27 +2744,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PAZ SOLDAN 4991</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926510</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Poste inclinado, cambiar o desmontar</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2803,16 +2803,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.468466</v>
+        <v>-58.480224</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.594154</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2867,40 +2867,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2935,40 +2935,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.568373</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3003,40 +3003,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3075,16 +3075,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3143,16 +3143,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3162,17 +3162,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3211,26 +3211,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3275,40 +3275,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3343,30 +3343,30 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3479,20 +3479,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6233</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3502,17 +3502,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3547,40 +3547,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6233</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3615,30 +3615,30 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.432722</v>
+        <v>-58.479742</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.572371</v>
+        <v>-34.546292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>6279</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>CORREA 3850</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t>807847111</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3683,20 +3683,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.479742</v>
+        <v>-58.486971</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.546292</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-495</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3706,17 +3706,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ricardo Balbin 3827</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">807846850 </t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,12 +3731,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada sin fotos pasa Pedro</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3755,145 +3755,9 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.484375</v>
+        <v>-58.436808</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.554597</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>6279</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CORREA 3850</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>807847111</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>-58.486971</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-34.550135</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>6295</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SOLER 6017</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>807851636</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>-58.436808</v>
-      </c>
-      <c r="N51" t="n">
         <v>-34.577464</v>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1792,17 +1792,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TRONADOR 2861</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804820700</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste, ver con inspector</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1847,40 +1847,40 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.478732</v>
+        <v>-58.482268</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.564529</v>
+        <v>-34.578975</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1895,17 +1895,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1915,40 +1915,40 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.482268</v>
+        <v>-58.464354</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.578975</v>
+        <v>-34.572486</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1987,26 +1987,26 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.464354</v>
+        <v>-58.489627</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.572486</v>
+        <v>-34.583761</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2051,20 +2051,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.489627</v>
+        <v>-58.471481</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.583761</v>
+        <v>-34.570441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2074,17 +2074,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2123,36 +2123,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.471481</v>
+        <v>-58.420549</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.570441</v>
+        <v>-34.585103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2187,20 +2187,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.420549</v>
+        <v>-58.506061</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.585103</v>
+        <v>-34.588887</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2255,20 +2255,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.506061</v>
+        <v>-58.499967</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.588887</v>
+        <v>-34.57974</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2327,26 +2327,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.499967</v>
+        <v>-58.499355</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.57974</v>
+        <v>-34.579354</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2395,36 +2395,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.499355</v>
+        <v>-58.485193</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.579354</v>
+        <v>-34.579621</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2463,36 +2463,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.485193</v>
+        <v>-58.441563</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.579621</v>
+        <v>-34.569743</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/13/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>MACHAIN 4516</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>806926363</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2527,30 +2527,30 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.441563</v>
+        <v>-58.49243</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.569743</v>
+        <v>-34.551559</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2595,20 +2595,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.49243</v>
+        <v>-58.513552</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.551559</v>
+        <v>-34.579829</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2667,26 +2667,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2731,20 +2731,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.513685</v>
+        <v>-58.480224</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.579838</v>
+        <v>-34.544229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2799,40 +2799,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2867,40 +2867,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.568373</v>
+        <v>-34.54124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2935,40 +2935,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3007,16 +3007,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3075,16 +3075,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3094,17 +3094,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3143,26 +3143,26 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3207,40 +3207,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3275,30 +3275,30 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3347,16 +3347,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3411,20 +3411,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3434,17 +3434,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3479,40 +3479,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6233</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3547,30 +3547,30 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.432722</v>
+        <v>-58.479742</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.572371</v>
+        <v>-34.546292</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>6279</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>CORREA 3850</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t>807847111</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3615,20 +3615,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.479742</v>
+        <v>-58.486971</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.546292</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6279</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3638,17 +3638,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CORREA 3850</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807847111</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3687,77 +3687,9 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.486971</v>
+        <v>-58.436808</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.550135</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>6295</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SOLER 6017</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>807851636</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>-58.436808</v>
-      </c>
-      <c r="N49" t="n">
         <v>-34.577464</v>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3693,6 +3693,74 @@
         <v>-34.577464</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>-497</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>7/2/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Machain 4556</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>807918340</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.492573</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.551355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,16 @@
           <t>Coordenada_Y</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Zona</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -572,6 +582,16 @@
       <c r="N2" t="n">
         <v>-34.551117</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +660,16 @@
       <c r="N3" t="n">
         <v>-34.565845</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -708,6 +738,16 @@
       <c r="N4" t="n">
         <v>-34.53627</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -776,6 +816,16 @@
       <c r="N5" t="n">
         <v>-34.543845</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -844,6 +894,16 @@
       <c r="N6" t="n">
         <v>-34.576987</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -908,6 +968,16 @@
       <c r="N7" t="n">
         <v>-34.589859</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -976,6 +1046,16 @@
       <c r="N8" t="n">
         <v>-34.565411</v>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1044,6 +1124,16 @@
       <c r="N9" t="n">
         <v>-34.553354</v>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1108,6 +1198,16 @@
       <c r="N10" t="n">
         <v>-34.595741</v>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1176,6 +1276,16 @@
       <c r="N11" t="n">
         <v>-34.566015</v>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1244,6 +1354,16 @@
       <c r="N12" t="n">
         <v>-34.566979</v>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1312,6 +1432,16 @@
       <c r="N13" t="n">
         <v>-34.558092</v>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1380,6 +1510,16 @@
       <c r="N14" t="n">
         <v>-34.567849</v>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1448,6 +1588,16 @@
       <c r="N15" t="n">
         <v>-34.574217</v>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1516,6 +1666,16 @@
       <c r="N16" t="n">
         <v>-34.574543</v>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1584,6 +1744,16 @@
       <c r="N17" t="n">
         <v>-34.552844</v>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1652,6 +1822,16 @@
       <c r="N18" t="n">
         <v>-34.552985</v>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1720,6 +1900,16 @@
       <c r="N19" t="n">
         <v>-34.571063</v>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1788,6 +1978,16 @@
       <c r="N20" t="n">
         <v>-34.556576</v>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1856,6 +2056,16 @@
       <c r="N21" t="n">
         <v>-34.578975</v>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1924,6 +2134,16 @@
       <c r="N22" t="n">
         <v>-34.572486</v>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1992,6 +2212,16 @@
       <c r="N23" t="n">
         <v>-34.583761</v>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2060,6 +2290,16 @@
       <c r="N24" t="n">
         <v>-34.570441</v>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2128,6 +2368,16 @@
       <c r="N25" t="n">
         <v>-34.585103</v>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2196,6 +2446,16 @@
       <c r="N26" t="n">
         <v>-34.588887</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2264,6 +2524,16 @@
       <c r="N27" t="n">
         <v>-34.57974</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2332,6 +2602,16 @@
       <c r="N28" t="n">
         <v>-34.579354</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2400,6 +2680,16 @@
       <c r="N29" t="n">
         <v>-34.579621</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2468,6 +2758,16 @@
       <c r="N30" t="n">
         <v>-34.569743</v>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2536,6 +2836,16 @@
       <c r="N31" t="n">
         <v>-34.551559</v>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2604,6 +2914,16 @@
       <c r="N32" t="n">
         <v>-34.579829</v>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2672,6 +2992,16 @@
       <c r="N33" t="n">
         <v>-34.579838</v>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2740,6 +3070,16 @@
       <c r="N34" t="n">
         <v>-34.544229</v>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2808,6 +3148,16 @@
       <c r="N35" t="n">
         <v>-34.568373</v>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2876,6 +3226,16 @@
       <c r="N36" t="n">
         <v>-34.54124</v>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2944,6 +3304,16 @@
       <c r="N37" t="n">
         <v>-34.578972</v>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3012,6 +3382,16 @@
       <c r="N38" t="n">
         <v>-34.585471</v>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3080,6 +3460,16 @@
       <c r="N39" t="n">
         <v>-34.593122</v>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3148,6 +3538,16 @@
       <c r="N40" t="n">
         <v>-34.602989</v>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3216,6 +3616,16 @@
       <c r="N41" t="n">
         <v>-34.593541</v>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3284,6 +3694,16 @@
       <c r="N42" t="n">
         <v>-34.581134</v>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3352,6 +3772,16 @@
       <c r="N43" t="n">
         <v>-34.576988</v>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3420,6 +3850,16 @@
       <c r="N44" t="n">
         <v>-34.574625</v>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3488,6 +3928,16 @@
       <c r="N45" t="n">
         <v>-34.572371</v>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3556,6 +4006,16 @@
       <c r="N46" t="n">
         <v>-34.546292</v>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3624,6 +4084,16 @@
       <c r="N47" t="n">
         <v>-34.550135</v>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3692,6 +4162,16 @@
       <c r="N48" t="n">
         <v>-34.577464</v>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3759,6 +4239,16 @@
       </c>
       <c r="N49" t="n">
         <v>-34.551355</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2772,17 +2772,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5802</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/13/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MACHAIN 4516</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806926363</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2827,18 +2827,18 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.49243</v>
+        <v>-58.513552</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.551559</v>
+        <v>-34.579829</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2850,7 +2850,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2928,17 +2928,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2983,18 +2983,18 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.513685</v>
+        <v>-58.480224</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579838</v>
+        <v>-34.544229</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3061,18 +3061,18 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.480224</v>
+        <v>-58.476106</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.544229</v>
+        <v>-34.568373</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3084,27 +3084,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3139,18 +3139,18 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.568373</v>
+        <v>-34.54124</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3162,27 +3162,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3217,50 +3217,50 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3299,26 +3299,26 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3377,10 +3377,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3406,17 +3406,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3474,17 +3474,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3529,14 +3529,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3552,27 +3552,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3607,40 +3607,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3763,14 +3763,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3796,17 +3796,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3841,14 +3841,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3864,27 +3864,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3919,50 +3919,50 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.432722</v>
+        <v>-58.479742</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.572371</v>
+        <v>-34.546292</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3997,257 +3997,23 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.479742</v>
+        <v>-58.436808</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.546292</v>
+        <v>-34.577464</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>6279</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CORREA 3850</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>807847111</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>-58.486971</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-34.550135</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>6295</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SOLER 6017</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>807851636</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>-58.436808</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-34.577464</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
           <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>-497</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>7/2/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Machain 4556</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>807918340</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>-58.492573</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-34.551355</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Base picada volvio a ingresar con caso 6322</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada volvio a entrar como caso 6325</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2616,27 +2616,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>6333</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>ORTEGA Y GASSET 1816</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805655342</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2675,46 +2675,46 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.485193</v>
+        <v>-58.432556</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.579621</v>
+        <v>-34.570279</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2753,46 +2753,46 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.441563</v>
+        <v>-58.485193</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.569743</v>
+        <v>-34.579621</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2827,30 +2827,30 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.513552</v>
+        <v>-58.441563</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.579829</v>
+        <v>-34.569743</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.513685</v>
+        <v>-58.513552</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579838</v>
+        <v>-34.579829</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2928,17 +2928,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2983,18 +2983,18 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.480224</v>
+        <v>-58.513685</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.544229</v>
+        <v>-34.579838</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3061,18 +3061,18 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.476106</v>
+        <v>-58.480224</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.568373</v>
+        <v>-34.544229</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3084,27 +3084,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3139,18 +3139,18 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.468425</v>
+        <v>-58.476106</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.54124</v>
+        <v>-34.568373</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3162,27 +3162,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3217,50 +3217,50 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.436298</v>
+        <v>-58.468425</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.578972</v>
+        <v>-34.54124</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3299,26 +3299,26 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.480925</v>
+        <v>-58.436298</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.585471</v>
+        <v>-34.578972</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3377,10 +3377,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.495071</v>
+        <v>-58.480925</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.593122</v>
+        <v>-34.585471</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3406,17 +3406,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.481942</v>
+        <v>-58.495071</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.602989</v>
+        <v>-34.593122</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3474,17 +3474,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3529,14 +3529,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.517389</v>
+        <v>-58.481942</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.593541</v>
+        <v>-34.602989</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3552,27 +3552,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3607,40 +3607,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.409579</v>
+        <v>-58.517389</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.581134</v>
+        <v>-34.593541</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.422315</v>
+        <v>-58.409579</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.576988</v>
+        <v>-34.581134</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3763,14 +3763,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.441049</v>
+        <v>-58.422315</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.574625</v>
+        <v>-34.576988</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3796,17 +3796,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3841,14 +3841,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.432722</v>
+        <v>-58.441049</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.572371</v>
+        <v>-34.574625</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3864,27 +3864,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3919,99 +3919,645 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.479742</v>
+        <v>-58.432722</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.546292</v>
+        <v>-34.572371</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>-492</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Correa 3087</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>807789705</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>-58.479742</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-34.546292</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>6295</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>6/30/2025</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>SOLER 6017</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>807851636</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="M47" t="n">
         <v>-58.436808</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N47" t="n">
         <v>-34.577464</v>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Palermo</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6321</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ARCOS 2739</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>807965771</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Columna con base corroída/oxidada</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>-58.45893</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-34.554449</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6330</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>REPUBLICA DE LA INDIA 3106</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>807965776</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Picada e inclinada</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.413941</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.57698</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6331</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PARAGUAY 4259</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>807965788</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>-58.421822</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.58645</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6332</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ARAOZ 2560</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>807965818</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>-58.414507</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.585377</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6336</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PARAGUAY 4291</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>807965819</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>-58.422084</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-34.58625</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6337</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PARAGUAY 4383</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>807965926</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>-58.422931</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.585597</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4176,7 +4176,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4235,10 +4235,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.413941</v>
+        <v>-58.421822</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.57698</v>
+        <v>-34.58645</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4313,10 +4313,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.421822</v>
+        <v>-58.414507</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.58645</v>
+        <v>-34.585377</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>PARAGUAY 4291</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807965819</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.414507</v>
+        <v>-58.422084</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.585377</v>
+        <v>-34.58625</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>PARAGUAY 4383</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>807965926</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.422084</v>
+        <v>-58.422931</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.58625</v>
+        <v>-34.585597</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4480,84 +4480,6 @@
         </is>
       </c>
       <c r="P52" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>6337</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>PARAGUAY 4383</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>807965926</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>-58.422931</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-34.585597</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4485,6 +4485,162 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6362</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ARIAS 3422</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>808099435</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Poste inclinado mal ubicado</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>-58.483313</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.54605</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>6363</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MOLDES 3730</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>808099415</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>-58.47192</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-34.549398</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,17 +752,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>5589</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAROISSIEN 1806</t>
+          <t>ARCOS 1520</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>802747617</t>
+          <t>799540526</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -782,43 +782,31 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-58.464172</v>
+        <v>-58.449125</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.543845</v>
+        <v>-34.565958</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -830,27 +818,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>4595</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1/21/2025</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALTOLAGUIRRE 2397</t>
+          <t>PAROISSIEN 1806</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>802823938</t>
+          <t>802747617</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -865,7 +853,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -885,18 +873,18 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.490766</v>
+        <v>-58.464172</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.576987</v>
+        <v>-34.543845</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -908,27 +896,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6036</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>1/21/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEDRANO 1715</t>
+          <t>ALTOLAGUIRRE 2397</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>803608181</t>
+          <t>802823938</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -941,20 +929,24 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Inclinada</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -963,46 +955,46 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.418236</v>
+        <v>-58.490766</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.589859</v>
+        <v>-34.576987</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>4862</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>ARCOS 2263</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>802857379</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1012,12 +1004,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1027,12 +1019,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1041,14 +1033,14 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.471774</v>
+        <v>-58.455082</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.565411</v>
+        <v>-34.558883</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1060,27 +1052,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>6036</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>MEDRANO 1715</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>803608181</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1093,11 +1085,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>0</t>
@@ -1110,55 +1098,55 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.44463</v>
+        <v>-58.418236</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.553354</v>
+        <v>-34.589859</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OSORIO 4994</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>804053324</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1171,7 +1159,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>0</t>
@@ -1179,7 +1171,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1193,14 +1185,14 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.466241</v>
+        <v>-58.471774</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.595741</v>
+        <v>-34.565411</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1212,27 +1204,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1247,17 +1239,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1267,18 +1259,18 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.47538</v>
+        <v>-58.44463</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.566015</v>
+        <v>-34.553354</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1290,27 +1282,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>OSORIO 4994</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804053324</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1323,19 +1315,15 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Reparar rienda</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1345,18 +1333,18 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.473659</v>
+        <v>-58.466241</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.566979</v>
+        <v>-34.595741</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1368,27 +1356,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1403,7 +1391,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Base picada volvio a ingresar con caso 6322</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1413,7 +1401,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1427,14 +1415,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.464194</v>
+        <v>-58.47538</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.558092</v>
+        <v>-34.566015</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1446,27 +1434,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>-312</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>MATIENZO BENJAMIN /ALT/ 1831</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804333522</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1476,17 +1464,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida columna con movimiento </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1496,45 +1484,45 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.46161</v>
+        <v>-58.434835</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.567849</v>
+        <v>-34.569129</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1544,7 +1532,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1559,7 +1547,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1569,7 +1557,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1583,14 +1571,14 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.507746</v>
+        <v>-58.473659</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.574217</v>
+        <v>-34.566979</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1602,7 +1590,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1612,17 +1600,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1637,7 +1625,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Base picada volvio a ingresar con caso 6322</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1647,7 +1635,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1657,18 +1645,18 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.50751</v>
+        <v>-58.464194</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.574543</v>
+        <v>-34.558092</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1680,17 +1668,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1700,7 +1688,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1735,18 +1723,18 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.457701</v>
+        <v>-58.46161</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.552844</v>
+        <v>-34.567849</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1758,17 +1746,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1778,7 +1766,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1793,7 +1781,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1808,23 +1796,23 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.485407</v>
+        <v>-58.507746</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.552985</v>
+        <v>-34.574217</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1836,17 +1824,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1856,7 +1844,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1871,7 +1859,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1881,7 +1869,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1891,18 +1879,18 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.471885</v>
+        <v>-58.50751</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.571063</v>
+        <v>-34.574543</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1914,17 +1902,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1934,7 +1922,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1973,10 +1961,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.45573</v>
+        <v>-58.457701</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.556576</v>
+        <v>-34.552844</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1992,17 +1980,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2012,7 +2000,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2027,12 +2015,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2042,7 +2030,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2051,14 +2039,14 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.482268</v>
+        <v>-58.485407</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.578975</v>
+        <v>-34.552985</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2070,27 +2058,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2105,7 +2093,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2115,7 +2103,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2125,14 +2113,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.464354</v>
+        <v>-58.471885</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.572486</v>
+        <v>-34.571063</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2148,27 +2136,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2183,7 +2171,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2193,7 +2181,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2203,18 +2191,18 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.489627</v>
+        <v>-58.45573</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.583761</v>
+        <v>-34.556576</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2226,17 +2214,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2246,7 +2234,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2261,12 +2249,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2285,14 +2273,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.471481</v>
+        <v>-58.482268</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.570441</v>
+        <v>-34.578975</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2304,27 +2292,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2339,7 +2327,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada volvio a entrar como caso 6325</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2349,7 +2337,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2359,40 +2347,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.420549</v>
+        <v>-58.464354</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.585103</v>
+        <v>-34.572486</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2402,7 +2390,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2417,7 +2405,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2427,7 +2415,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2441,10 +2429,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.506061</v>
+        <v>-58.489627</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.588887</v>
+        <v>-34.583761</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2460,17 +2448,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2480,7 +2468,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2495,7 +2483,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2505,7 +2493,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2519,14 +2507,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.499967</v>
+        <v>-58.471481</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.57974</v>
+        <v>-34.570441</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2538,27 +2526,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2573,7 +2561,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada volvio a entrar como caso 6325</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2597,26 +2585,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.499355</v>
+        <v>-58.420549</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.579354</v>
+        <v>-34.585103</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2626,17 +2614,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ORTEGA Y GASSET 1816</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805655342</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2651,7 +2639,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2661,7 +2649,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2671,40 +2659,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.432556</v>
+        <v>-58.506061</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.570279</v>
+        <v>-34.588887</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2714,7 +2702,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2753,10 +2741,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.485193</v>
+        <v>-58.499967</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.579621</v>
+        <v>-34.57974</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2772,27 +2760,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2831,46 +2819,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.441563</v>
+        <v>-58.499355</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.569743</v>
+        <v>-34.579354</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>6333</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>ORTEGA Y GASSET 1816</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>805655342</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2885,7 +2873,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2895,7 +2883,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2905,40 +2893,40 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.513552</v>
+        <v>-58.432556</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579829</v>
+        <v>-34.570279</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2948,7 +2936,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2963,7 +2951,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2973,7 +2961,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2983,14 +2971,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.513685</v>
+        <v>-58.485193</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579838</v>
+        <v>-34.579621</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3006,27 +2994,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3041,7 +3029,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3061,40 +3049,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.480224</v>
+        <v>-58.441563</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.544229</v>
+        <v>-34.569743</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3104,7 +3092,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3119,7 +3107,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3129,7 +3117,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3139,18 +3127,18 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.476106</v>
+        <v>-58.513552</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.568373</v>
+        <v>-34.579829</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3162,27 +3150,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3197,7 +3185,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3207,7 +3195,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3217,18 +3205,18 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.468425</v>
+        <v>-58.513685</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.54124</v>
+        <v>-34.579838</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3240,27 +3228,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>QUINTANA 4631</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>806975681</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3275,7 +3263,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3295,50 +3283,50 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.436298</v>
+        <v>-58.480224</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.578972</v>
+        <v>-34.544229</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3377,14 +3365,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.480925</v>
+        <v>-58.476106</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.585471</v>
+        <v>-34.568373</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3396,27 +3384,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3431,7 +3419,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3441,7 +3429,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3451,18 +3439,18 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.495071</v>
+        <v>-58.468425</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.593122</v>
+        <v>-34.54124</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3474,27 +3462,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3533,46 +3521,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.481942</v>
+        <v>-58.436298</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.602989</v>
+        <v>-34.578972</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3587,7 +3575,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3607,14 +3595,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.517389</v>
+        <v>-58.480925</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.593541</v>
+        <v>-34.585471</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3630,27 +3618,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3665,7 +3653,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3689,46 +3677,46 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.409579</v>
+        <v>-58.495071</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.581134</v>
+        <v>-34.593122</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3767,46 +3755,46 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.422315</v>
+        <v>-58.481942</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.576988</v>
+        <v>-34.602989</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3821,7 +3809,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3841,50 +3829,50 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.441049</v>
+        <v>-58.517389</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.574625</v>
+        <v>-34.593541</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3899,7 +3887,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3923,10 +3911,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.432722</v>
+        <v>-58.409579</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.572371</v>
+        <v>-34.581134</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3942,27 +3930,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3977,7 +3965,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3987,7 +3975,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3997,40 +3985,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.479742</v>
+        <v>-58.422315</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.546292</v>
+        <v>-34.576988</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4040,7 +4028,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4055,7 +4043,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4075,14 +4063,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.436808</v>
+        <v>-58.441049</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.577464</v>
+        <v>-34.574625</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4098,27 +4086,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6321</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ARCOS 2739</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807965771</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4133,7 +4121,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4157,46 +4145,46 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.45893</v>
+        <v>-58.432722</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.554449</v>
+        <v>-34.572371</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>Correa 3087</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807789705</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4211,7 +4199,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4221,7 +4209,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4231,40 +4219,40 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.421822</v>
+        <v>-58.479742</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.58645</v>
+        <v>-34.546292</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4274,7 +4262,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4313,10 +4301,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.414507</v>
+        <v>-58.436808</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.585377</v>
+        <v>-34.577464</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4332,7 +4320,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6321</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4342,17 +4330,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>ARCOS 2739</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>807965771</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4367,7 +4355,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4391,26 +4379,26 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.422084</v>
+        <v>-58.45893</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.58625</v>
+        <v>-34.554449</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4420,7 +4408,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARAGUAY 4383</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4430,7 +4418,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807965926</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4469,10 +4457,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.422931</v>
+        <v>-58.421822</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.585597</v>
+        <v>-34.58645</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4488,27 +4476,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6362</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ARIAS 3422</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>808099435</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4523,7 +4511,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Poste inclinado mal ubicado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4543,99 +4531,333 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.483313</v>
+        <v>-58.414507</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.54605</v>
+        <v>-34.585377</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>6336</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PARAGUAY 4291</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>807965819</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>-58.422084</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-34.58625</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6337</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PARAGUAY 4383</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>807965926</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.422931</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.585597</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6362</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ARIAS 3422</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>808099435</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Poste inclinado mal ubicado</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.483313</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.54605</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>6363</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>7/8/2025</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>MOLDES 3730</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>808099415</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Poste inclinado</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Aplomo</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="M57" t="n">
         <v>-58.47192</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N57" t="n">
         <v>-34.549398</v>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>Saavedra</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4863,6 +4863,162 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>-503</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>7/10/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Salguero 842</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>808148673</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Cambiar columna picada en la base</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.419166</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.600265</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>-504</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>7/10/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ohiggins 1611</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>808148679</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Columna podrida en la base</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.448993</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.564383</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -556,10 +556,8 @@
           <t>Terminal con rienda</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -634,10 +632,8 @@
           <t>Colocar columna para solicitar traspasos</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -712,10 +708,8 @@
           <t>Poste inclinado</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -790,10 +784,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -856,10 +848,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -934,10 +924,8 @@
           <t>Inclinada</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1012,10 +1000,8 @@
           <t>picada</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1086,10 +1072,8 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1164,10 +1148,8 @@
           <t>Columna inclinada</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1242,10 +1224,8 @@
           <t>Poste</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1316,10 +1296,8 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1394,10 +1372,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1472,10 +1448,8 @@
           <t xml:space="preserve">Cambiar columna 114 base corroida columna con movimiento </t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1550,10 +1524,8 @@
           <t>Reparar rienda</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I15" t="n">
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1628,10 +1600,8 @@
           <t>Base picada volvio a ingresar con caso 6322</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I16" t="n">
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1706,10 +1676,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1784,10 +1752,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I18" t="n">
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1862,10 +1828,8 @@
           <t>aplomar</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I19" t="n">
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1940,10 +1904,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2018,10 +1980,8 @@
           <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I21" t="n">
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2096,10 +2056,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I22" t="n">
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2174,10 +2132,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I23" t="n">
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2252,10 +2208,8 @@
           <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I24" t="n">
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2330,10 +2284,8 @@
           <t>Desmonte de poste</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I25" t="n">
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2408,10 +2360,8 @@
           <t>Poste con base quebrada</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I26" t="n">
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2486,10 +2436,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I27" t="n">
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2564,10 +2512,8 @@
           <t>Picada volvio a entrar como caso 6325</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I28" t="n">
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2642,10 +2588,8 @@
           <t>Aplomar poste</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I29" t="n">
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2720,10 +2664,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I30" t="n">
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2798,10 +2740,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I31" t="n">
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2876,10 +2816,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I32" t="n">
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2954,10 +2892,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I33" t="n">
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3032,10 +2968,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I34" t="n">
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3110,10 +3044,8 @@
           <t>Columna (metal) inclinada</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I35" t="n">
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3188,10 +3120,8 @@
           <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I36" t="n">
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3266,10 +3196,8 @@
           <t>Poste quebrado</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I37" t="n">
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3344,10 +3272,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I38" t="n">
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3422,10 +3348,8 @@
           <t xml:space="preserve">Poste </t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I39" t="n">
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3500,10 +3424,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I40" t="n">
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3578,10 +3500,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I41" t="n">
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3656,10 +3576,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I42" t="n">
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3734,10 +3652,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I43" t="n">
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3812,10 +3728,8 @@
           <t>Poste podrido</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I44" t="n">
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3890,10 +3804,8 @@
           <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I45" t="n">
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3968,10 +3880,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I46" t="n">
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -4046,10 +3956,8 @@
           <t>Aplomar o cambiar</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I47" t="n">
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4124,10 +4032,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I48" t="n">
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4202,10 +4108,8 @@
           <t>Ver con prioridad Esta agarrado por la red de cobre</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I49" t="n">
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4280,10 +4184,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I50" t="n">
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4358,10 +4260,8 @@
           <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I51" t="n">
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4436,10 +4336,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I52" t="n">
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4514,10 +4412,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I53" t="n">
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4592,10 +4488,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I54" t="n">
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4670,10 +4564,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I55" t="n">
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4748,10 +4640,8 @@
           <t>Poste inclinado mal ubicado</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I56" t="n">
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4826,10 +4716,8 @@
           <t>Poste inclinado</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I57" t="n">
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4904,10 +4792,8 @@
           <t>Cambiar columna picada en la base</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I58" t="n">
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4982,10 +4868,8 @@
           <t>Columna podrida en la base</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I59" t="n">
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -1110,7 +1110,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1120,17 +1120,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1167,46 +1167,46 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.471774</v>
+        <v>-58.371855</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.565411</v>
+        <v>-34.646958</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1239,18 +1239,18 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.44463</v>
+        <v>-58.471774</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.553354</v>
+        <v>-34.565411</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1262,27 +1262,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OSORIO 4994</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804053324</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1295,7 +1295,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
@@ -1311,18 +1315,18 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.466241</v>
+        <v>-58.44463</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.595741</v>
+        <v>-34.553354</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1334,27 +1338,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>OSORIO 4994</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804053324</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1367,17 +1371,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1391,14 +1391,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.47538</v>
+        <v>-58.466241</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.566015</v>
+        <v>-34.595741</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1410,27 +1410,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-312</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MATIENZO BENJAMIN /ALT/ 1831</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804333522</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1440,25 +1440,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida columna con movimiento </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1467,46 +1467,46 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.434835</v>
+        <v>-58.47538</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.569129</v>
+        <v>-34.566015</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>-312</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>MATIENZO BENJAMIN /ALT/ 1831</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804333522</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1516,73 +1516,73 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida columna con movimiento </t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.473659</v>
+        <v>-58.434835</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.566979</v>
+        <v>-34.569129</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Base picada volvio a ingresar con caso 6322</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1615,18 +1615,18 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.464194</v>
+        <v>-58.473659</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.558092</v>
+        <v>-34.566979</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada volvio a ingresar con caso 6322</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1691,18 +1691,18 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.46161</v>
+        <v>-58.464194</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.567849</v>
+        <v>-34.558092</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1714,7 +1714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.507746</v>
+        <v>-58.46161</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.574217</v>
+        <v>-34.567849</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1790,7 +1790,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.50751</v>
+        <v>-58.507746</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.574543</v>
+        <v>-34.574217</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1866,27 +1866,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1919,18 +1919,18 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.457701</v>
+        <v>-58.50751</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.552844</v>
+        <v>-34.574543</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1942,27 +1942,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.485407</v>
+        <v>-58.457701</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.552985</v>
+        <v>-34.552844</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2075,14 +2075,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.471885</v>
+        <v>-58.485407</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.571063</v>
+        <v>-34.552985</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2094,7 +2094,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2104,17 +2104,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2151,14 +2151,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.45573</v>
+        <v>-58.471885</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.556576</v>
+        <v>-34.571063</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2170,27 +2170,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2205,15 +2205,15 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2227,14 +2227,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.482268</v>
+        <v>-58.45573</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.578975</v>
+        <v>-34.556576</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2246,27 +2246,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2281,15 +2281,15 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2299,18 +2299,18 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.464354</v>
+        <v>-58.482268</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.572486</v>
+        <v>-34.578975</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2322,27 +2322,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2379,14 +2379,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.489627</v>
+        <v>-58.464354</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.583761</v>
+        <v>-34.572486</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2398,17 +2398,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2451,18 +2451,18 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.471481</v>
+        <v>-58.489627</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.570441</v>
+        <v>-34.583761</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2474,7 +2474,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada volvio a entrar como caso 6325</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2531,46 +2531,46 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.420549</v>
+        <v>-58.471481</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.585103</v>
+        <v>-34.570441</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada volvio a entrar como caso 6325</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2603,30 +2603,30 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.506061</v>
+        <v>-58.420549</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.588887</v>
+        <v>-34.585103</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2679,14 +2679,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.499967</v>
+        <v>-58.506061</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.57974</v>
+        <v>-34.588887</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.499355</v>
+        <v>-58.499967</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.579354</v>
+        <v>-34.57974</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2788,17 +2788,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ORTEGA Y GASSET 1816</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805655342</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2835,46 +2835,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.432556</v>
+        <v>-58.499355</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.570279</v>
+        <v>-34.579354</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>6333</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>ORTEGA Y GASSET 1816</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805655342</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2911,46 +2911,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.485193</v>
+        <v>-58.432556</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579621</v>
+        <v>-34.570279</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2987,46 +2987,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.441563</v>
+        <v>-58.485193</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.569743</v>
+        <v>-34.579621</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3059,30 +3059,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.513552</v>
+        <v>-58.441563</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579829</v>
+        <v>-34.569743</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513685</v>
+        <v>-58.513552</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579838</v>
+        <v>-34.579829</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3158,17 +3158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QUINTANA 4631</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806975681</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3211,18 +3211,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.480224</v>
+        <v>-58.513685</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.544229</v>
+        <v>-34.579838</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3386,27 +3386,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3443,14 +3443,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.436298</v>
+        <v>-58.362579</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.578972</v>
+        <v>-34.635096</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3462,27 +3462,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3519,26 +3519,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.480925</v>
+        <v>-58.436298</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.585471</v>
+        <v>-34.578972</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.495071</v>
+        <v>-58.480925</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.593122</v>
+        <v>-34.585471</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3624,17 +3624,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.481942</v>
+        <v>-58.495071</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.602989</v>
+        <v>-34.593122</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3690,17 +3690,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3743,14 +3743,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.517389</v>
+        <v>-58.481942</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.593541</v>
+        <v>-34.602989</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3766,27 +3766,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3819,40 +3819,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.409579</v>
+        <v>-58.517389</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.581134</v>
+        <v>-34.593541</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.422315</v>
+        <v>-58.409579</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.576988</v>
+        <v>-34.581134</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3971,14 +3971,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.441049</v>
+        <v>-58.422315</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.574625</v>
+        <v>-34.576988</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4047,14 +4047,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.432722</v>
+        <v>-58.441049</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.572371</v>
+        <v>-34.574625</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4070,27 +4070,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-492</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Correa 3087</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807789705</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Ver con prioridad Esta agarrado por la red de cobre</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4123,23 +4123,23 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.479742</v>
+        <v>-58.432722</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.546292</v>
+        <v>-34.572371</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,7 +1110,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1120,17 +1120,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>Monroe 3605</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803825082</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1167,46 +1167,46 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.371855</v>
+        <v>-58.471774</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.646958</v>
+        <v>-34.565411</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/11/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Monroe 3605</t>
+          <t>MENDOZA 1153</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>803825082</t>
+          <t>803969314</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1239,18 +1239,18 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.471774</v>
+        <v>-58.44463</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.565411</v>
+        <v>-34.553354</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1262,27 +1262,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3/11/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MENDOZA 1153</t>
+          <t>OSORIO 4994</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>803969314</t>
+          <t>804053324</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1295,11 +1295,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>0</v>
       </c>
@@ -1315,18 +1311,18 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.44463</v>
+        <v>-58.466241</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.553354</v>
+        <v>-34.595741</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1338,27 +1334,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OSORIO 4994</t>
+          <t>ESTOMBA 2626</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804053324</t>
+          <t>804309704</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1371,13 +1367,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1391,14 +1391,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.466241</v>
+        <v>-58.47538</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.595741</v>
+        <v>-34.566015</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1410,27 +1410,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>-312</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ESTOMBA 2626</t>
+          <t>MATIENZO BENJAMIN /ALT/ 1831</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804309704</t>
+          <t>804333522</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1440,25 +1440,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida columna con movimiento </t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1467,46 +1467,46 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.47538</v>
+        <v>-58.434835</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.566015</v>
+        <v>-34.569129</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-312</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MATIENZO BENJAMIN /ALT/ 1831</t>
+          <t>MONROE 3838</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804333522</t>
+          <t>804468442</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1516,73 +1516,73 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida columna con movimiento </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.434835</v>
+        <v>-58.473659</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.569129</v>
+        <v>-34.566979</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MONROE 3838</t>
+          <t>MOLDES 2735</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804468442</t>
+          <t>804497876</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Base picada volvio a ingresar con caso 6322</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1615,18 +1615,18 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.473659</v>
+        <v>-58.464194</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.566979</v>
+        <v>-34.558092</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Base picada volvio a ingresar con caso 6322</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1691,18 +1691,18 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.464194</v>
+        <v>-58.46161</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.558092</v>
+        <v>-34.567849</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1714,7 +1714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.46161</v>
+        <v>-58.507746</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.567849</v>
+        <v>-34.574217</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1790,7 +1790,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.507746</v>
+        <v>-58.50751</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.574217</v>
+        <v>-34.574543</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1866,27 +1866,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1919,18 +1919,18 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.50751</v>
+        <v>-58.457701</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.574543</v>
+        <v>-34.552844</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1942,27 +1942,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.457701</v>
+        <v>-58.485407</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.552844</v>
+        <v>-34.552985</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2075,14 +2075,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.485407</v>
+        <v>-58.471885</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.552985</v>
+        <v>-34.571063</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2094,7 +2094,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2104,17 +2104,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2151,14 +2151,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.471885</v>
+        <v>-58.45573</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.571063</v>
+        <v>-34.556576</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2170,27 +2170,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2205,15 +2205,15 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2227,14 +2227,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.45573</v>
+        <v>-58.482268</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.556576</v>
+        <v>-34.578975</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2246,27 +2246,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2281,15 +2281,15 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2299,18 +2299,18 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.482268</v>
+        <v>-58.464354</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.578975</v>
+        <v>-34.572486</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2322,27 +2322,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2379,14 +2379,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.464354</v>
+        <v>-58.489627</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.572486</v>
+        <v>-34.583761</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2398,17 +2398,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2451,18 +2451,18 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.489627</v>
+        <v>-58.471481</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.583761</v>
+        <v>-34.570441</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2474,7 +2474,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada volvio a entrar como caso 6325</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2531,46 +2531,46 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.471481</v>
+        <v>-58.420549</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.570441</v>
+        <v>-34.585103</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada volvio a entrar como caso 6325</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2603,30 +2603,30 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.420549</v>
+        <v>-58.506061</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.585103</v>
+        <v>-34.588887</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2679,14 +2679,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.506061</v>
+        <v>-58.499967</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.588887</v>
+        <v>-34.57974</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.499967</v>
+        <v>-58.499355</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.57974</v>
+        <v>-34.579354</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>6333</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2788,17 +2788,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>ORTEGA Y GASSET 1816</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805655342</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2835,46 +2835,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.499355</v>
+        <v>-58.432556</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579354</v>
+        <v>-34.570279</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ORTEGA Y GASSET 1816</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805655342</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2911,46 +2911,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.432556</v>
+        <v>-58.485193</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.570279</v>
+        <v>-34.579621</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2987,46 +2987,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.485193</v>
+        <v>-58.441563</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.579621</v>
+        <v>-34.569743</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3059,30 +3059,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.441563</v>
+        <v>-58.513552</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.569743</v>
+        <v>-34.579829</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3158,17 +3158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3211,18 +3211,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.513685</v>
+        <v>-58.476106</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.579838</v>
+        <v>-34.568373</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3234,27 +3234,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3287,18 +3287,18 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.568373</v>
+        <v>-34.54124</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3310,27 +3310,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3363,50 +3363,50 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3443,46 +3443,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.362579</v>
+        <v>-58.480925</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.635096</v>
+        <v>-34.585471</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3519,26 +3519,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.436298</v>
+        <v>-58.495071</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.578972</v>
+        <v>-34.593122</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.480925</v>
+        <v>-58.481942</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.585471</v>
+        <v>-34.602989</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3614,27 +3614,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3667,14 +3667,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.495071</v>
+        <v>-58.517389</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.593122</v>
+        <v>-34.593541</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3690,27 +3690,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3747,46 +3747,46 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.481942</v>
+        <v>-58.409579</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.602989</v>
+        <v>-34.581134</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3819,40 +3819,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.517389</v>
+        <v>-58.422315</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.593541</v>
+        <v>-34.576988</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3895,14 +3895,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.409579</v>
+        <v>-58.441049</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.581134</v>
+        <v>-34.574625</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3928,17 +3928,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3975,10 +3975,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.422315</v>
+        <v>-58.432722</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.576988</v>
+        <v>-34.572371</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3994,17 +3994,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4047,14 +4047,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.441049</v>
+        <v>-58.436808</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.574625</v>
+        <v>-34.577464</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4070,27 +4070,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6321</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>ARCOS 2739</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807965771</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4127,36 +4127,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.432722</v>
+        <v>-58.45893</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.572371</v>
+        <v>-34.554449</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4203,10 +4203,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.436808</v>
+        <v>-58.421822</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.577464</v>
+        <v>-34.58645</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6321</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4232,17 +4232,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARCOS 2739</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807965771</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4279,26 +4279,26 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.45893</v>
+        <v>-58.414507</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.554449</v>
+        <v>-34.585377</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>PARAGUAY 4291</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807965819</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4355,10 +4355,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.421822</v>
+        <v>-58.422084</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.58645</v>
+        <v>-34.58625</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>PARAGUAY 4383</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807965926</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.414507</v>
+        <v>-58.422931</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.585377</v>
+        <v>-34.585597</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4450,27 +4450,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4503,50 +4503,50 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.422084</v>
+        <v>-58.47192</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.58625</v>
+        <v>-34.549398</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>-503</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PARAGUAY 4383</t>
+          <t>Salguero 842</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807965926</t>
+          <t>808148673</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna picada en la base</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4583,14 +4583,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.422931</v>
+        <v>-58.419166</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.585597</v>
+        <v>-34.600265</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4602,27 +4602,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6362</t>
+          <t>-504</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ARIAS 3422</t>
+          <t>Ohiggins 1611</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>808099435</t>
+          <t>808148679</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Poste inclinado mal ubicado</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4650,23 +4650,23 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.483313</v>
+        <v>-58.448993</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.54605</v>
+        <v>-34.564383</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4678,27 +4678,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>MOLDES 1808</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>808194266</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4731,173 +4731,21 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.47192</v>
+        <v>-58.45719</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.549398</v>
+        <v>-34.566365</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>-503</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>7/10/2025</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Salguero 842</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>808148673</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Cambiar columna picada en la base</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>-58.419166</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-34.600265</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>-504</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>7/10/2025</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Ohiggins 1611</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>808148679</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Columna podrida en la base</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>-58.448993</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-34.564383</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1562,7 +1562,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MOLDES 2735</t>
+          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804497876</t>
+          <t>804497880</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Base picada volvio a ingresar con caso 6322</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1615,18 +1615,18 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.464194</v>
+        <v>-58.46161</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.558092</v>
+        <v>-34.567849</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1648,17 +1648,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUCRE, ANTONIO JOSE DE, MCAL. 3100</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804497880</t>
+          <t>804497887</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1695,14 +1695,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.46161</v>
+        <v>-58.507746</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.567849</v>
+        <v>-34.574217</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1714,7 +1714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5899</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804497887</t>
+          <t>804498035</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1771,10 +1771,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.507746</v>
+        <v>-58.50751</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.574217</v>
+        <v>-34.574543</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1790,27 +1790,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 5920</t>
+          <t>CONGRESO 1927</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804498035</t>
+          <t>804568921</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1843,18 +1843,18 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.50751</v>
+        <v>-58.457701</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.574543</v>
+        <v>-34.552844</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1866,27 +1866,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.457701</v>
+        <v>-58.485407</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.552844</v>
+        <v>-34.552985</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1999,14 +1999,14 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.485407</v>
+        <v>-58.471885</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.552985</v>
+        <v>-34.571063</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2075,14 +2075,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.471885</v>
+        <v>-58.45573</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.571063</v>
+        <v>-34.556576</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2094,27 +2094,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2129,15 +2129,15 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2151,14 +2151,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.45573</v>
+        <v>-58.482268</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.556576</v>
+        <v>-34.578975</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2170,27 +2170,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2205,15 +2205,15 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2223,18 +2223,18 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.482268</v>
+        <v>-58.464354</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.578975</v>
+        <v>-34.572486</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2246,27 +2246,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2303,14 +2303,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.464354</v>
+        <v>-58.489627</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.572486</v>
+        <v>-34.583761</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2322,17 +2322,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2375,18 +2375,18 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.489627</v>
+        <v>-58.471481</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.583761</v>
+        <v>-34.570441</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2398,7 +2398,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2408,17 +2408,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada volvio a entrar como caso 6325</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2455,46 +2455,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.471481</v>
+        <v>-58.420549</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.570441</v>
+        <v>-34.585103</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada volvio a entrar como caso 6325</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2527,30 +2527,30 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.420549</v>
+        <v>-58.506061</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.585103</v>
+        <v>-34.588887</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.506061</v>
+        <v>-58.499967</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.588887</v>
+        <v>-34.57974</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.499967</v>
+        <v>-58.499355</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.57974</v>
+        <v>-34.579354</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>6333</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>ORTEGA Y GASSET 1816</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805655342</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2759,46 +2759,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.499355</v>
+        <v>-58.432556</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.579354</v>
+        <v>-34.570279</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ORTEGA Y GASSET 1816</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805655342</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2835,46 +2835,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.432556</v>
+        <v>-58.485193</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.570279</v>
+        <v>-34.579621</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2911,46 +2911,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.485193</v>
+        <v>-58.441563</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.579621</v>
+        <v>-34.569743</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2983,30 +2983,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.441563</v>
+        <v>-58.513552</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.569743</v>
+        <v>-34.579829</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3082,17 +3082,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3135,18 +3135,18 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513685</v>
+        <v>-58.476106</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579838</v>
+        <v>-34.568373</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3158,27 +3158,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3211,18 +3211,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.568373</v>
+        <v>-34.54124</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3234,27 +3234,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3287,50 +3287,50 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3367,26 +3367,26 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3443,10 +3443,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3472,17 +3472,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3538,17 +3538,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3591,14 +3591,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3614,27 +3614,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3667,40 +3667,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3747,10 +3747,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3819,14 +3819,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3852,17 +3852,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3895,14 +3895,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3918,27 +3918,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3975,10 +3975,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.432722</v>
+        <v>-58.436808</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.572371</v>
+        <v>-34.577464</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3994,27 +3994,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6321</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>ARCOS 2739</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807965771</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4051,26 +4051,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.436808</v>
+        <v>-58.45893</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.577464</v>
+        <v>-34.554449</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6321</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4080,17 +4080,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ARCOS 2739</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807965771</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4127,26 +4127,26 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.45893</v>
+        <v>-58.421822</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.554449</v>
+        <v>-34.58645</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4203,10 +4203,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.421822</v>
+        <v>-58.414507</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.58645</v>
+        <v>-34.585377</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>PARAGUAY 4291</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807965819</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.414507</v>
+        <v>-58.422084</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.585377</v>
+        <v>-34.58625</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>PARAGUAY 4383</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>807965926</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4355,10 +4355,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.422084</v>
+        <v>-58.422931</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.58625</v>
+        <v>-34.585597</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4374,27 +4374,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PARAGUAY 4383</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807965926</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4427,50 +4427,50 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.422931</v>
+        <v>-58.47192</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.585597</v>
+        <v>-34.549398</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>-503</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>Salguero 842</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>808148673</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambiar columna picada en la base</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4503,30 +4503,30 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.47192</v>
+        <v>-58.419166</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.549398</v>
+        <v>-34.600265</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-503</t>
+          <t>-504</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4536,17 +4536,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Salguero 842</t>
+          <t>Ohiggins 1611</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>808148673</t>
+          <t>808148679</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en la base</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4583,36 +4583,36 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.419166</v>
+        <v>-58.448993</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.600265</v>
+        <v>-34.564383</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-504</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ohiggins 1611</t>
+          <t>MOLDES 1808</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>808148679</t>
+          <t>808194266</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.448993</v>
+        <v>-58.45719</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.564383</v>
+        <v>-34.566365</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4670,82 +4670,6 @@
         </is>
       </c>
       <c r="P56" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>6392</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>7/14/2025</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>MOLDES 1808</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>808194266</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>-58.45719</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-34.566365</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_NEW.xlsx
+++ b/mapa_interactivo_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1790,27 +1790,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CONGRESO 1927</t>
+          <t>ESTOMBA 4052</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804568921</t>
+          <t>804732246</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.457701</v>
+        <v>-58.485407</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.552844</v>
+        <v>-34.552985</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>5601</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ESTOMBA 4052</t>
+          <t>JURAMENTO 3964</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804732246</t>
+          <t>804732274</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Columna PRFV quedo inclinada (la hicieron como estomba 4056)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1923,14 +1923,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.485407</v>
+        <v>-58.471885</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.552985</v>
+        <v>-34.571063</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1942,7 +1942,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5601</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1952,17 +1952,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JURAMENTO 3964</t>
+          <t>O'HIGGINS 2441</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804732274</t>
+          <t>804732275</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1999,14 +1999,14 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.471885</v>
+        <v>-58.45573</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.571063</v>
+        <v>-34.556576</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2018,27 +2018,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O'HIGGINS 2441</t>
+          <t>AVALOS 1935</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732275</t>
+          <t>804839238</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2053,15 +2053,15 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna  - VIRARDI</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2075,14 +2075,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.45573</v>
+        <v>-58.482268</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.556576</v>
+        <v>-34.578975</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2094,27 +2094,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AVALOS 1935</t>
+          <t>PINO, VIRREY DEL 3456</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804839238</t>
+          <t>804876043</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2129,15 +2129,15 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomo de columna  - VIRARDI</t>
+          <t>Desmonte de poste</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2147,18 +2147,18 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.482268</v>
+        <v>-58.464354</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.578975</v>
+        <v>-34.572486</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2170,27 +2170,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>5656</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PINO, VIRREY DEL 3456</t>
+          <t>ECHEVERRIA 5893</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876043</t>
+          <t>804922184</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desmonte de poste</t>
+          <t>Poste con base quebrada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2227,14 +2227,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.464354</v>
+        <v>-58.489627</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.572486</v>
+        <v>-34.583761</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2246,17 +2246,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ECHEVERRIA 5893</t>
+          <t>ESTOMBA 2119</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804922184</t>
+          <t>805507349</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Poste con base quebrada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2299,18 +2299,18 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.489627</v>
+        <v>-58.471481</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.583761</v>
+        <v>-34.570441</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2322,7 +2322,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2332,17 +2332,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ESTOMBA 2119</t>
+          <t>ARMENIA 2321</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>805507349</t>
+          <t>805507398</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada volvio a entrar como caso 6325</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2379,46 +2379,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.471481</v>
+        <v>-58.420549</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.570441</v>
+        <v>-34.585103</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ARMENIA 2321</t>
+          <t>CUENCA 4690</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805507398</t>
+          <t>805579094</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada volvio a entrar como caso 6325</t>
+          <t>Aplomar poste</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2451,30 +2451,30 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.420549</v>
+        <v>-58.506061</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.585103</v>
+        <v>-34.588887</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUENCA 4690</t>
+          <t>CABEZON, JOSE LEON 2440</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805579094</t>
+          <t>805579157</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2527,14 +2527,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.506061</v>
+        <v>-58.499967</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.588887</v>
+        <v>-34.57974</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2440</t>
+          <t>CABEZON, JOSE LEON 2398</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579157</t>
+          <t>805579172</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.499967</v>
+        <v>-58.499355</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.57974</v>
+        <v>-34.579354</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>6333</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2636,17 +2636,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CABEZON, JOSE LEON 2398</t>
+          <t>ORTEGA Y GASSET 1816</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579172</t>
+          <t>805655342</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2683,46 +2683,46 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.499355</v>
+        <v>-58.432556</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.579354</v>
+        <v>-34.570279</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ORTEGA Y GASSET 1816</t>
+          <t>JURAMENTO 5321</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805655342</t>
+          <t>805791839</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2759,46 +2759,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.432556</v>
+        <v>-58.485193</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.570279</v>
+        <v>-34.579621</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/9/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JURAMENTO 5321</t>
+          <t>Gorostiaga 2286</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805791839</t>
+          <t>805791858</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2835,46 +2835,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.485193</v>
+        <v>-58.441563</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.579621</v>
+        <v>-34.569743</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/9/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gorostiaga 2286</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805791858</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2907,30 +2907,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.441563</v>
+        <v>-58.513552</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.569743</v>
+        <v>-34.579829</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2987,10 +2987,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.513552</v>
+        <v>-58.513685</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.579829</v>
+        <v>-34.579838</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3006,17 +3006,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3059,18 +3059,18 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.513685</v>
+        <v>-58.476106</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579838</v>
+        <v>-34.568373</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3082,27 +3082,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3135,18 +3135,18 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.476106</v>
+        <v>-58.468425</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.568373</v>
+        <v>-34.54124</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3158,27 +3158,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3211,50 +3211,50 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.468425</v>
+        <v>-58.436298</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.54124</v>
+        <v>-34.578972</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3291,26 +3291,26 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.436298</v>
+        <v>-58.480925</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.578972</v>
+        <v>-34.585471</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3396,17 +3396,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3443,10 +3443,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3462,17 +3462,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3515,14 +3515,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3538,27 +3538,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3591,40 +3591,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.517389</v>
+        <v>-58.409579</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.593541</v>
+        <v>-34.581134</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.409579</v>
+        <v>-58.422315</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.581134</v>
+        <v>-34.576988</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3743,14 +3743,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3776,17 +3776,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3819,14 +3819,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3842,27 +3842,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.432722</v>
+        <v>-58.436808</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.572371</v>
+        <v>-34.577464</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3918,17 +3918,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3975,10 +3975,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.436808</v>
+        <v>-58.421822</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.577464</v>
+        <v>-34.58645</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6321</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ARCOS 2739</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807965771</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4051,26 +4051,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.45893</v>
+        <v>-58.414507</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.554449</v>
+        <v>-34.585377</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>PARAGUAY 4291</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807965819</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.421822</v>
+        <v>-58.422084</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.58645</v>
+        <v>-34.58625</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>PARAGUAY 4383</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807965926</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4203,10 +4203,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.414507</v>
+        <v>-58.422931</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.585377</v>
+        <v>-34.585597</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4222,27 +4222,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4275,50 +4275,50 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.422084</v>
+        <v>-58.47192</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.58625</v>
+        <v>-34.549398</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>-503</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARAGUAY 4383</t>
+          <t>Salguero 842</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807965926</t>
+          <t>808148673</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna picada en la base</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4355,14 +4355,14 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.422931</v>
+        <v>-58.419166</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.585597</v>
+        <v>-34.600265</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4374,27 +4374,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>-504</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>Ohiggins 1611</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>808148679</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4417,28 +4417,28 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.47192</v>
+        <v>-58.448993</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.549398</v>
+        <v>-34.564383</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4450,27 +4450,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-503</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Salguero 842</t>
+          <t>MOLDES 1808</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>808148673</t>
+          <t>808194266</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4507,169 +4507,17 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.419166</v>
+        <v>-58.45719</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.600265</v>
+        <v>-34.566365</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>-504</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>7/10/2025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Ohiggins 1611</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>808148679</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Columna podrida en la base</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>-58.448993</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-34.564383</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>6392</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>7/14/2025</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>MOLDES 1808</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>808194266</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>-58.45719</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-34.566365</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
